--- a/TermList.xlsx
+++ b/TermList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FastAPI\TermCompass_FastAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TermCompass\TermCompass_FastAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E0CABA-4143-46E7-A13D-68F5E78E3D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C09599D-000E-4A25-B18B-B5CB40BB4A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,226 +556,31 @@
     <t>제９조 - 결제 및 해지</t>
   </si>
   <si>
-    <t>이 조항에 따라 2회원이 작성한 게시물에 대한 모든 권리 및 책임은 이를 게시한 회원에게 있으며, 회사는 회원이 게시하거나 등록하는 서비스의 내용물이 다음 각 항에 해당한다고 판단되는 경우 또는 제3자로부터의 신고가 접수된 경우 관련 절차에 따라 사전통지 없이 임시조치 및 삭제할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 2회사는 14세 미만의 아동의 개인위치정보 또는 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우 이용자와 이용자의 법정대리인의 동의를 받아야 합니다. 단, 아래의 경우는 제외합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사는 통신판매중개서비스를 제한하거나 중지하려는 경우에는 제한 또는 중지 예정일의 7일 전까지 그 이유 및 내용을 구체적으로 고지합니다. 다만, 긴급하고 상당한 이유가 있는 경우에는 제한할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회원은 언제든지 회사에 해지의 의사를 통지하여 이용계약을 해지할 수 있다. 회원이 회사에 대한 채무를 전부 이행하지 않으면 회사는 회원의 이용계약 해지를 제한할 수 있다. 회원이 약관과 관계 법령 등을 위반하여 이용이 정지된 경우 회사가 회원의 이용계약 해지를 제한할 수 있다. 회원의 의사로 해지한 후 회원 재가입, 임의 해지 등을 반복적으로 행하여 회사가 제공하는 각종 할인쿠폰, 이벤트 혜택 등 경제적 이익을 편법으로 수취하거나 이 과정에서 명의를 무단 사용하는 등 편법과 불법행위를 하는 것을 차단하고자 회사는 회원에게 이용 계약이 종료된 후라도 해당 회원의 재가입 제한 기간을 다음 각 목과 같이 운영하거나 또는 이용 신청을 승낙하지 않을 수로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제10조 2 회사는 제1항 제2호의 규정에도 불구하고 회원이 다음 각 호에 해당하는 행위를 한 경우에 즉시 이용계약을 해지할 수 있다. 회사는 회원에게 다음 각목의 1에 해당하는 사유가 발생하거나 확인되면 이용계약을 해지할 수 있다. 회원이 이 약관에 위배되는 행위를 하거나 이 약관에서 정한 해지사유가 발생한 경우(11번가 판매회원 약관의 적용을 받는 자가 해당 약관을 위반한 경우 포함). 회사가 해지할 때에는 회사는 회원에게 해지 의사를 통지한다. 이용계약은 회사의 해지의사가 회원에게 도달한 시점에 종료된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 통신판매업자인 회원이 판매하는 물품을 구매한 구매자는 전자상거래법에 따라 수령한 날로부터 7일 이내에 청약의 철회 및 계약의 해제를 할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 구매자가 청약철회등을 한 경우 회사는 회원으로부터 반환 물품 수령 사실을 통지 받은 후 3영업일 이내에 구매자에게 결제 금액을 환급하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사에서는 불특정다수 회원에 대한 통지를 하는 경우 1주일 이상 사이트에 게시함으로써 개별 통지에 갈음할 수 있지만 중대한 영향을 미치는 사항에 관하여는 개별 통지한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회원은 회사에 대하여 열람 또는 고지를 요구할 수 있고, 자료에 오류가 있는 경우에는 그 정정을 요구할 수 있습니다. 이 경우 회사는 정당한 사유 없이 회원의 요구를 거절할 수 없습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제11조 (디지털카드 서비스) 4회사, 발급기관 또는 이용기관(이하 발급기관과 이용기관을 통칭하여 ‘제휴사’라 합니다)이 제공하는 서비스에서 회원의 디지털카드 정보를 조회하거나 노출할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 사업자 등록을 한 프로상점 회원은 폐업 시 회사에 즉시 통보해야 하며, 미 통보 시 발생되는 세무적 손해의 책임은 회사가 지지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있다. 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 자료를 제출할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사는 14세 미만의 아동의 개인위치정보 또는 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우에는 14세 미만의 아동과 그 법정대리인의 동의를 받아야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회원의 귀책사유로 인한 유료서비스 이용의 장애에 대하여는 회사의 귀책사유가 없는 한 책임을 지지 않습니다. 회원의 귀책사유로 인한 유료서비스 이용의 장애에 대하여는 회사의 귀책사유가 없는 한 책임을 지지 않습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 청약철회 기간이 경과한 경우에도 이용기간 내에 해지할 수 있으며, 결제한 이용료에서 위약금 10%를 공제한 90%가 환불된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회원 탈퇴 및 자격 상실일까지 지급된 무상 포인트는 자동으로 소멸되며, 미사용 유상 포인트는 현금으로 환급됩니다.   로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회원이 작성한 게시물에 대한 모든 권리 및 책임은 이를 게시한 회원에게 있으며, 회사는 회원이 게시하거나 등록한 게시물이 다음 각 호에 해당한다고 판단되는 경우 삭제 또는 임시조치할 수 있으며, 해당 조치 후 관련 내용을 회원에게 즉시 통보한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사는 불특정다수의 이용자에 대한 통지의 경우 1주일 이상 회사 게시판에 게시함으로써 개별 통지에 갈음할 수 있지만 이용자 본인의 거래와 관련하여 중대한 영향을 미치는 사항에 대하여는 개별통지를 할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회원은 서비스를 이용하는 과정에서 얻은 정보를 회사의 사전 승낙 없이 영리 목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.  로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 2회사는 회사의 과실로 인하여 여러분이 손해를 입게 될 경우 본 약관 및 관련 법령에 따라 여러분의 손해를 배상하겠습니다. 다만 회사는 회사의 과실 없이 발생된 아래와 같은 손해에 대해서는 책임을 부담하지 않습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사가 불가피한 사유로 이용자의 접근매체를 획득한 경우 그 접근매체를 반환할 때에는 다음 각 호의 방법으로 본인임을 확인할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 상품을 반품 받은 판매회원은 상품을 반환받은 날로부터 3영업일 이내에 검수 후 처리를 이행하여야 한다. 반품확정 처리는 배송비 정산, 사은품의 반환 확인 등이 필요한 경우 반품보류 처리, 반품거부 처리시 상품 등의 대금은 환불되지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 제1호 내지 제3호를 제외한 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우, 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우, 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우,로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사와 여러분 간에 분쟁이 발생하면 이의 해결을 위해 성실히 협의할 것입니다. 그럼에도 해결되지 않으면 민사소송법상의 관할법원에 소를 제기할 수 있습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사는 판매회원이 법령 또는 제16조를 비롯한 본 약관에서 금지하는 행위를 하였거나 또는 법령∙가격∙유통상황∙상품광고∙이용후기의 내용 등을 종합적으로 고려하여 금지 행위를 한 것으로 판단하는 경우에는 위반 행위의 경중 및 횟수에 따라 이용자 보호와 회사의 손해를 최소화 할 수 있는 조치를 취할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제18조는 당근과 사용자와의 관계에 적용되며, 제3자의 수익권을 발생시키지 않는다. 본 약관은 당근와 사용자와의 관계에 적용되며, 제3자의 수익권을 발생시키지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 판매회원이 상품의 취소, 반품, 환불과 관련한 이용정책을 위반하거나 이로 인한 클레임이 발생하였을 경우, 회사는 아래의 규정에 따라 조치 할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제19조 (예치된 결제대금의 지급방법) 1 소비자는 재화 등을 공급받은 사실을 공급받은 날부터 3영업일 이내에 회사에 통보하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제10조 (환불) 1 회사는 본 서비스 및 개별 서비스에 대하여 결제 및 환불 조건과 그 변경 내용에 대해 회원에게 설명하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제10조 2 회원이 이용료를 결제한 이후 본 서비스가 중도에 해지되는 경우, 다음 각 호를 기준으로 환불 진행 여부를 결정할 수 있다. A. 회원이 이용료 결제 후 이용료를 결제한 해당 월에 본 서비스를 1회 이상 이용한 경우 환불 불가하다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사는 선지급식 통신판매에 있어서 구매자가 지급하는 결제대금을 예치하고 배송이 완료된 후 재화 또는 용역의 대금을 판매자에게 지급함으로써 구매자의 안전을 도모한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 구매회원의 단순변심으로 인한 교환/반품 요청이 상품등을 수령한 날로부터 7일을 경과한 경우, 구매회원의 귀책사유로 말미암아 상품이 멸실·훼손된 경우, 구매회원의 사용 또는 일부 소비에 의하여 상품의 가치가 현저히 감소한 경우, 시간의 경과에 의하여 재판매가 곤란할 정도로 상품의 가치가 현저히 감소한 경우, 배송된 상품이 하자없음을 확인한 후 설치가 완료된 경우, 복제가 가능한 상품의 포장을 훼손한 경우, 구매하신 상품의 구성품 일부가 훼손되거나 누락된 경우, 기타 관련법령이 정하는 청약철회 제한사유에 해당되는 경우이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사는 선지급식 통신판매에 있어서 구매회원이 지급하는 결제대금을 예치하고 배송이 완료된 후 상품 또는 용역의 대금을 판매회원에게 지급함으로써 구매회원의 안전을 도모한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 이용자는 “요기요서비스” 이용과 관련하여 “요기요 리뷰운영정책”을 위반하는 행위, “요기요”가 제공하는 경제적 이익을 수취할 목적으로 “요기요” 임의탈퇴 및 재가입을 반복하는 행위, “요기요”가 게시한 정보를 무단으로 복제하거나 위조, 변조하는 행위, “요기요”의 임직원, 피용자, 상담원, 업무수탁자에게 폭력적, 명예훼손적, 모욕적, 또는 성적 굴욕감이나 혐오감을 유발할 수 있는 발언이나 행동을 하는 행위, “요기요”의 “임직원 등”에게 일반적 거래관념상 비합리적이거나 그 의미 내지 취지가로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회원은 회사의 사업 현황을 파악하기 위한 목적, 불법적이거나 비합법적인 목적, 또는 본 이용 약관에서 금지하는 목적 등으로 사용하기 위하여 회사의 웹 ∙ 앱 ∙ 서버에 접근하는 일체의 행위를 하여서는 안 된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 이용자의 충전식 선불전자지급수단 잔액이 이용자의 환급 요청 금액보다 작은 경우 환급이 보류될 수 있으나 회사는 그 사유가 해소되는 시점에 환급 처리를 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있습니다. 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 자료를 제출할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 판매회원은 타인의 상표나 로고를 사용할 때 반드시 사전에 해당 권리자에게 사용허락을 받아야 한다. 회사는 이미테이션(모조)상품의 판매를 금지하고 있다. 이미테이션 여부를 사전에 고지했는지 여부와 관계없이 모든 이미테이션 제품은 판매가 불가능하다. 유명상표를 무단으로 도용했을 경우 해당 상품은 상품등록이 거절되거나 제한상품으로 등록된다. 판매서비스이용료 및 부가서비스이용료는 환불되지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사는 상품 등록 시 상품리스트 노출을 목적으로 상품명에 부정 키워드를 사용하는 것을 금지하고 있습니다. 부정키워드 사용 적발 시 회사는 신용점수 차감, 정산기일 조정 및 아래와 같은 제재조치를 취할 수 있습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 이용자는 회사가 제공하는 각종 서비스를 이용함으로써 얻은 정보 중 회사에게 지식재산권이 귀속된 정보를 회사의 사전 승낙 없이 영리목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사가 티켓을 발송한 이후 취소하려는 경우 구매자는 취소 마감시간 전까지 해당 티켓을 회사로 반송, 도달하도록 하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 구매자는 예매당일 회사의 인터넷사업장을 통해 직접 취소가 가능하며 예매당일 이후에도 취소가 가능하지만 제36조에 따른 취소수수료가 부과된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 위치기반서비스의 이용요금은 무료이다. 위치기반서비스의 이용요금은 무료이다. 위치기반서비스의 이용요금은 무료이다. 위치기반서비스의 이용요금은 무료이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사가 본 약관을 변경하는 때에는 변경되는 약관의 시행일 1개월 전에 해당 전자금융거래를 수행하는 전자적 장치에 게시하고 이용자에게 통지하여야 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 3회사가 본 약관을 변경하는 때에는 변경되는 약관의 시행일 1개월 전에 해당 전자금융거래를 수행하는 전자적 장치에 게시하고 이용자에게 통지하여야 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제4조 (개인위치정보주체의 권리) 4개인위치정보주체는 회사에 대하여 자료의 열람 또는 고지를 요구할 수 있고, 자료에 오류가 있는 경우에는 그 정정을 요구할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제4조 1회사는 전자상거래 서비스 및 이에 수반 되는 기타 서비스, 기타 회사가 정하는 서비스 또는 업무, 기타 회사가 정하는 서비스 또는 업무, 기타 회사가 정하는 서비스 등을 제공한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사는 회원에 대한 통지의 경우 7일 이상 게시함으로써 제1항의 통지에 갈음할 수 있습니다. 다만, 중대한 영향을 미치는 사항에 대해서는 제1항의 통지를 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사가 이용자 전체 또는 불특정 다수 이용자에게 통지를 하는 경우, 7일 이상 앱 내 공지함으로써 전항의 통지에 갈음할 수 있지만 중대한 영향을 미치거나 급박한 사항의 경우 전항의 통지를 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 5회사는 여러분이 인터넷과 모바일로 즐길 수 있는 다양한 서비스를 제공합니다. 회사도 개별적인 서비스 이용방법을 상세하게 안내하고 있으니 언제든지 확인하여 주시기 바랍니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 수신자는 페이상품권 양도사실을 모바일 메신저 또는 SMS의 전자적 수단으로 통지받은 날로부터 93일 이내에, 페이상품권의 수령을 수락하는 의사를 표시하여 등록하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제6조 (양도 및 등록 등) 5 교환권을 제휴 판매처가 정한 등록기한 이내에 등록하지 않은 경우, 이용자는 제7조에서 정한 유효기간 이내에 교환권 구매금액 전부를 환급받을 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회사에서는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제6조 2 회사는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제8조 2회사는 불특정다수 회원에 대한 통지의 경우 7일 이상 사이버몰의 공지사항에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제9조 (개인위치정보주체의 권리) 4이용자는 회사에 대하여 아래 자료에 대한 열람 또는 고지를 요구할 수 있으며, 해당 자료에 오류가 있는 경우에는 정정을 요구할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 1회사는 프로상점 회원이 다음 각 호의 사유에 해당하는 경우, 서비스 이용을 제한하거나 회원자격을 제한, 정지하거나, 서비스 이용계약을 해지하고 탈퇴시킬 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 전항의 경우 불특정 다수인을 상대로 통지를 함에 있어서는 서비스 홈페이지 등 기타 회사의 공지사항 페이지를 통하여 회원들에게 통지할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 회원의 잔액 부족, 한도 초과, 결제 오류 등 기타 여하한 사유로 이용료의 결제가 이루어지지 않을 경우, 회원은 정상적으로 결제가 이루어질 수 있도록 필요한 조치를 취하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
     <t>제5조 (이용계약 체결) ⑦“업주”는 “서비스” 이용과정에서 습득한 “회사” 및 “서비스”, “이용자”와 관련한 정보를 제3자에게 제공하거나 외부에 유출할 수 없으며, 개인정보의 경우 관련법령에 따라 필요한 보호 조치 등을 취해야 합니다.</t>
   </si>
   <si>
     <t>제5조 - 이용계약 체결</t>
   </si>
   <si>
-    <t>이 조항에 따라 “업주”는 “서비스” 이용과정에서 습득한 “회사” 및 “서비스”, “이용자”와 관련한 정보를 제3자에게 제공하거나 외부에 유출할 수 없으며, 개인정보의 경우 관련법령에 따라 필요한 보호 조치 등을 취해야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
     <t>제3조 (약관의 게시와 개정) ②“회사”는 “약관의 규제에 관한 법률”, “정보통신망 이용촉진 및 정보보호 등에 관한 법률”, “전자상거래 등에서의 소비자 보호에 관한 법률” 등 관련법을 위배하지 않는 범위에서 이 약관을 개정할 수 있습니다.</t>
   </si>
   <si>
     <t>제3조 - 약관의 게시와 개정</t>
   </si>
   <si>
-    <t>이 조항에 따라 제3조 2 “회사”는 “약관의 규제에 관한 법률” 등 관련법을 위배하지 않는 범위에서 이 약관을 개정할 수 있습니다. 로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
     <t>제3조 (약관의 게시와 개정) ③“회사”가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 그 개정약관의 적용일자 7일 전부터 적용일자 전일까지 “서비스” 페이지 공지사항 등을 통해 공지합니다. 다만, 회원에게 불리한 약관 개정의 경우에는 적용일자 30일 전부터 적용일자 전일까지 공지하고, 공지 외에 전자우편, 휴대폰메시지, 로그인 시 동의창 등의 방법을 통해 별도로 고지할 수 있습니다.</t>
   </si>
   <si>
-    <t>이 조항에 따라 “회사”가 약관을 개정할 경우에는 현행약관과 함께 그 개정약관의 적용일자 7일 전부터 적용일자 전일까지 “서비스” 페이지 공지사항 등을 통해 공지한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
     <t>제3조 (약관의 게시와 개정) ①“회사”는 이 약관의 내용을 “업주”가 쉽게 알 수 있도록 "서비스” 페이지 초기 화면에 게시합니다.</t>
   </si>
   <si>
-    <t>이 조항에 따라 제3조 1“회사”는 이 약관의 내용을 “업주”가 쉽게 알 수 있도록 “서비스” 페이지 초기 화면에 게시한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
     <t>제5조 (이용계약 체결) ④“업주”는 개별 상품을 통해 “이용자”에게 제공하는 것으로 약정된 혜택 등이 있는 경우 이를 성실히 이행하여야 합니다.</t>
   </si>
   <si>
-    <t>이 조항에 따라 “업주”는 개별 상품을 통해 “이용자”에게 제공하는 것으로 약정된 혜택 등이 있는 경우 이를 성실히 이행하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
     <t>제9조 (대금결제 및 환불) ⑤환불계좌는 기본 광고(울트라콜,파워콜) 진행 시 업주가 요청한 계좌로 설정되며 환불계좌를 별도 신청하지 않았더라도 우리가게마케팅센터 약관 동의 시 바로결제 정산계좌가 기본으로 설정됩니다. 단, 2015년 12월 22일 이전 약관동의를 진행했거나 바로결제 정산계좌가 없는 경우 담당 매니저 또는 고객센터를 통해 환불계좌 등록 후 비즈머니 환불이 진행됩니다.</t>
   </si>
   <si>
     <t>제9조 - 대금결제 및 환불</t>
-  </si>
-  <si>
-    <t>이 조항에 따라 제9조 (대금결제 및 환불) 5환불계좌는 기본 광고 진행 시 업주가 요청한 계좌로 설정되며 별도 신청이 없어도 바로결제 정산계좌가 기본이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
   </si>
   <si>
     <t>제8조 (서비스의 중단) ①“회사”는 다음 각 호의 경우 “서비스”의 제공을 일시 또는 영구적으로 중단할 수 있습니다.
@@ -788,32 +593,232 @@
     <t>제8조 - 서비스의 중단</t>
   </si>
   <si>
-    <t>이 조항에 따라 제8조 1 “회사”는 “서비스”의 제공을 일시 또는 영구적으로 중단할 수 있다. “업주”의 광고컨텐츠 및 “서비스” 이용이 본 약관 및 관련법령을 위반하는 경우, “서비스” 이용 대금의 지급을 지연하거나, “서비스” 이용을 위한 충전금이 부족한 경우, “서비스” 이용을 위한 충전금이 부족한 경우, 로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
     <t>제5조 (이용계약 체결) ④제 2항과 및 제 3항에 따라 “업주”의 신청을 승낙 하지 아니하거나 유보한 경우, “회사”는 원칙적으로 이를 “업주”에게 안내합니다.
 제6조 “회사”의 권리와 의무</t>
   </si>
   <si>
-    <t>이 조항에 따라 “업주”의 신청을 승낙하지 않거나 유보한 경우, “회사”는 원칙적으로 이를 “업주”에게 안내한다. “회사”의 권리와 의무는 “회사”의 권리와 의무이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
     <t>제9조 (대금결제 및 환불) ①“회사”는 “업주”에게 “서비스” 이용요금을 부과할 수 있으며, 구체적인 서비스 이용요금은 개별 상품별 운영정책에 따릅니다.</t>
   </si>
   <si>
-    <t>이 조항에 따라 제9조 1“회사”는 “업주”에게 “서비스” 이용요금을 부과할 수 있으며, 구체적인 서비스 이용요금은 개별 상품별 운영정책에 따릅니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
     <t>제5조 (이용계약 체결) ②“업주”는 “업주”가 직접 등록하거나 “회사”에 제공하는 광고 컨텐츠가 관계법령을 위반하거나 제3자의 권리를 침해하지 않음을 보증하며, 이를 위반하여 분쟁이 발생하는 경우 “업주”의 책임과 비용으로 “회사”를 면책시키고 해당 분쟁을 해결하여야 합니다.</t>
   </si>
   <si>
-    <t>이 조항에 따라 “업주”는 “업주”가 직접 등록하거나 “회사”에 제공하는 광고 컨텐츠가 관계법령을 위반하거나 제3자의 권리를 침해하지 않음을 보증한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
     <t>DISADVANTAGE</t>
   </si>
   <si>
     <t>ADVANTAGE</t>
+  </si>
+  <si>
+    <t>회사는 통신판매중개서비스를 제한하거나 중지하려는 경우에는 제한 또는 중지 예정일의 7일 전까지 그 이유 및 내용을 구체적으로 고지합니다. 다만, 긴급하고 상당한 이유가 있는 경우에는 제한할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회원은 언제든지 회사에 해지의 의사를 통지하여 이용계약을 해지할 수 있다. 회원이 회사에 대한 채무를 전부 이행하지 않으면 회사는 회원의 이용계약 해지를 제한할 수 있다. 회원이 약관과 관계 법령 등을 위반하여 이용이 정지된 경우 회사가 회원의 이용계약 해지를 제한할 수 있다. 회원의 의사로 해지한 후 회원 재가입, 임의 해지 등을 반복적으로 행하여 회사가 제공하는 각종 할인쿠폰, 이벤트 혜택 등 경제적 이익을 편법으로 수취하거나 이 과정에서 명의를 무단 사용하는 등 편법과 불법행위를 하는 것을 차단하고자 회사는 회원에게 이용 계약이 종료된 후라도 해당 회원의 재가입 제한 기간을 다음 각 목과 같이 운영하거나 또는 이용 신청을 승낙하지 않을 수로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>제10조 2 회사는 제1항 제2호의 규정에도 불구하고 회원이 다음 각 호에 해당하는 행위를 한 경우에 즉시 이용계약을 해지할 수 있다. 회사는 회원에게 다음 각목의 1에 해당하는 사유가 발생하거나 확인되면 이용계약을 해지할 수 있다. 회원이 이 약관에 위배되는 행위를 하거나 이 약관에서 정한 해지사유가 발생한 경우(11번가 판매회원 약관의 적용을 받는 자가 해당 약관을 위반한 경우 포함). 회사가 해지할 때에는 회사는 회원에게 해지 의사를 통지한다. 이용계약은 회사의 해지의사가 회원에게 도달한 시점에 종료된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>통신판매업자인 회원이 판매하는 물품을 구매한 구매자는 전자상거래법에 따라 수령한 날로부터 7일 이내에 청약의 철회 및 계약의 해제를 할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>구매자가 청약철회등을 한 경우 회사는 회원으로부터 반환 물품 수령 사실을 통지 받은 후 3영업일 이내에 구매자에게 결제 금액을 환급하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회사에서는 불특정다수 회원에 대한 통지를 하는 경우 1주일 이상 사이트에 게시함으로써 개별 통지에 갈음할 수 있지만 중대한 영향을 미치는 사항에 관하여는 개별 통지한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회원은 회사에 대하여 열람 또는 고지를 요구할 수 있고, 자료에 오류가 있는 경우에는 그 정정을 요구할 수 있습니다. 이 경우 회사는 정당한 사유 없이 회원의 요구를 거절할 수 없습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제11조 (디지털카드 서비스) 4회사, 발급기관 또는 이용기관(이하 발급기관과 이용기관을 통칭하여 ‘제휴사’라 합니다)이 제공하는 서비스에서 회원의 디지털카드 정보를 조회하거나 노출할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>사업자 등록을 한 프로상점 회원은 폐업 시 회사에 즉시 통보해야 하며, 미 통보 시 발생되는 세무적 손해의 책임은 회사가 지지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있다. 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 자료를 제출할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회사는 14세 미만의 아동의 개인위치정보 또는 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우에는 14세 미만의 아동과 그 법정대리인의 동의를 받아야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회원의 귀책사유로 인한 유료서비스 이용의 장애에 대하여는 회사의 귀책사유가 없는 한 책임을 지지 않습니다. 회원의 귀책사유로 인한 유료서비스 이용의 장애에 대하여는 회사의 귀책사유가 없는 한 책임을 지지 않습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>청약철회 기간이 경과한 경우에도 이용기간 내에 해지할 수 있으며, 결제한 이용료에서 위약금 10%를 공제한 90%가 환불된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회원 탈퇴 및 자격 상실일까지 지급된 무상 포인트는 자동으로 소멸되며, 미사용 유상 포인트는 현금으로 환급됩니다.   로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회원이 작성한 게시물에 대한 모든 권리 및 책임은 이를 게시한 회원에게 있으며, 회사는 회원이 게시하거나 등록한 게시물이 다음 각 호에 해당한다고 판단되는 경우 삭제 또는 임시조치할 수 있으며, 해당 조치 후 관련 내용을 회원에게 즉시 통보한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회사는 불특정다수의 이용자에 대한 통지의 경우 1주일 이상 회사 게시판에 게시함으로써 개별 통지에 갈음할 수 있지만 이용자 본인의 거래와 관련하여 중대한 영향을 미치는 사항에 대하여는 개별통지를 할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회원은 서비스를 이용하는 과정에서 얻은 정보를 회사의 사전 승낙 없이 영리 목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.  로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회사가 불가피한 사유로 이용자의 접근매체를 획득한 경우 그 접근매체를 반환할 때에는 다음 각 호의 방법으로 본인임을 확인할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>상품을 반품 받은 판매회원은 상품을 반환받은 날로부터 3영업일 이내에 검수 후 처리를 이행하여야 한다. 반품확정 처리는 배송비 정산, 사은품의 반환 확인 등이 필요한 경우 반품보류 처리, 반품거부 처리시 상품 등의 대금은 환불되지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 제1호 내지 제3호를 제외한 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우, 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우, 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우,로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회사와 여러분 간에 분쟁이 발생하면 이의 해결을 위해 성실히 협의할 것입니다. 그럼에도 해결되지 않으면 민사소송법상의 관할법원에 소를 제기할 수 있습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회사는 판매회원이 법령 또는 제16조를 비롯한 본 약관에서 금지하는 행위를 하였거나 또는 법령∙가격∙유통상황∙상품광고∙이용후기의 내용 등을 종합적으로 고려하여 금지 행위를 한 것으로 판단하는 경우에는 위반 행위의 경중 및 횟수에 따라 이용자 보호와 회사의 손해를 최소화 할 수 있는 조치를 취할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>제18조는 당근과 사용자와의 관계에 적용되며, 제3자의 수익권을 발생시키지 않는다. 본 약관은 당근와 사용자와의 관계에 적용되며, 제3자의 수익권을 발생시키지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>판매회원이 상품의 취소, 반품, 환불과 관련한 이용정책을 위반하거나 이로 인한 클레임이 발생하였을 경우, 회사는 아래의 규정에 따라 조치 할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>제19조 (예치된 결제대금의 지급방법) 1 소비자는 재화 등을 공급받은 사실을 공급받은 날부터 3영업일 이내에 회사에 통보하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제10조 (환불) 1 회사는 본 서비스 및 개별 서비스에 대하여 결제 및 환불 조건과 그 변경 내용에 대해 회원에게 설명하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>제10조 2 회원이 이용료를 결제한 이후 본 서비스가 중도에 해지되는 경우, 다음 각 호를 기준으로 환불 진행 여부를 결정할 수 있다. A. 회원이 이용료 결제 후 이용료를 결제한 해당 월에 본 서비스를 1회 이상 이용한 경우 환불 불가하다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회사는 선지급식 통신판매에 있어서 구매자가 지급하는 결제대금을 예치하고 배송이 완료된 후 재화 또는 용역의 대금을 판매자에게 지급함으로써 구매자의 안전을 도모한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>구매회원의 단순변심으로 인한 교환/반품 요청이 상품등을 수령한 날로부터 7일을 경과한 경우, 구매회원의 귀책사유로 말미암아 상품이 멸실·훼손된 경우, 구매회원의 사용 또는 일부 소비에 의하여 상품의 가치가 현저히 감소한 경우, 시간의 경과에 의하여 재판매가 곤란할 정도로 상품의 가치가 현저히 감소한 경우, 배송된 상품이 하자없음을 확인한 후 설치가 완료된 경우, 복제가 가능한 상품의 포장을 훼손한 경우, 구매하신 상품의 구성품 일부가 훼손되거나 누락된 경우, 기타 관련법령이 정하는 청약철회 제한사유에 해당되는 경우이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회사는 선지급식 통신판매에 있어서 구매회원이 지급하는 결제대금을 예치하고 배송이 완료된 후 상품 또는 용역의 대금을 판매회원에게 지급함으로써 구매회원의 안전을 도모한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>이용자는 “요기요서비스” 이용과 관련하여 “요기요 리뷰운영정책”을 위반하는 행위, “요기요”가 제공하는 경제적 이익을 수취할 목적으로 “요기요” 임의탈퇴 및 재가입을 반복하는 행위, “요기요”가 게시한 정보를 무단으로 복제하거나 위조, 변조하는 행위, “요기요”의 임직원, 피용자, 상담원, 업무수탁자에게 폭력적, 명예훼손적, 모욕적, 또는 성적 굴욕감이나 혐오감을 유발할 수 있는 발언이나 행동을 하는 행위, “요기요”의 “임직원 등”에게 일반적 거래관념상 비합리적이거나 그 의미 내지 취지가로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회원은 회사의 사업 현황을 파악하기 위한 목적, 불법적이거나 비합법적인 목적, 또는 본 이용 약관에서 금지하는 목적 등으로 사용하기 위하여 회사의 웹 ∙ 앱 ∙ 서버에 접근하는 일체의 행위를 하여서는 안 된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>이용자의 충전식 선불전자지급수단 잔액이 이용자의 환급 요청 금액보다 작은 경우 환급이 보류될 수 있으나 회사는 그 사유가 해소되는 시점에 환급 처리를 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있습니다. 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 자료를 제출할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>판매회원은 타인의 상표나 로고를 사용할 때 반드시 사전에 해당 권리자에게 사용허락을 받아야 한다. 회사는 이미테이션(모조)상품의 판매를 금지하고 있다. 이미테이션 여부를 사전에 고지했는지 여부와 관계없이 모든 이미테이션 제품은 판매가 불가능하다. 유명상표를 무단으로 도용했을 경우 해당 상품은 상품등록이 거절되거나 제한상품으로 등록된다. 판매서비스이용료 및 부가서비스이용료는 환불되지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회사는 상품 등록 시 상품리스트 노출을 목적으로 상품명에 부정 키워드를 사용하는 것을 금지하고 있습니다. 부정키워드 사용 적발 시 회사는 신용점수 차감, 정산기일 조정 및 아래와 같은 제재조치를 취할 수 있습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>이용자는 회사가 제공하는 각종 서비스를 이용함으로써 얻은 정보 중 회사에게 지식재산권이 귀속된 정보를 회사의 사전 승낙 없이 영리목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회사가 티켓을 발송한 이후 취소하려는 경우 구매자는 취소 마감시간 전까지 해당 티켓을 회사로 반송, 도달하도록 하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>구매자는 예매당일 회사의 인터넷사업장을 통해 직접 취소가 가능하며 예매당일 이후에도 취소가 가능하지만 제36조에 따른 취소수수료가 부과된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>위치기반서비스의 이용요금은 무료이다. 위치기반서비스의 이용요금은 무료이다. 위치기반서비스의 이용요금은 무료이다. 위치기반서비스의 이용요금은 무료이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회사가 본 약관을 변경하는 때에는 변경되는 약관의 시행일 1개월 전에 해당 전자금융거래를 수행하는 전자적 장치에 게시하고 이용자에게 통지하여야 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제4조 (개인위치정보주체의 권리) 4개인위치정보주체는 회사에 대하여 자료의 열람 또는 고지를 요구할 수 있고, 자료에 오류가 있는 경우에는 그 정정을 요구할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제4조 1회사는 전자상거래 서비스 및 이에 수반 되는 기타 서비스, 기타 회사가 정하는 서비스 또는 업무, 기타 회사가 정하는 서비스 또는 업무, 기타 회사가 정하는 서비스 등을 제공한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회사는 회원에 대한 통지의 경우 7일 이상 게시함으로써 제1항의 통지에 갈음할 수 있습니다. 다만, 중대한 영향을 미치는 사항에 대해서는 제1항의 통지를 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회사가 이용자 전체 또는 불특정 다수 이용자에게 통지를 하는 경우, 7일 이상 앱 내 공지함으로써 전항의 통지에 갈음할 수 있지만 중대한 영향을 미치거나 급박한 사항의 경우 전항의 통지를 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>5회사는 여러분이 인터넷과 모바일로 즐길 수 있는 다양한 서비스를 제공합니다. 회사도 개별적인 서비스 이용방법을 상세하게 안내하고 있으니 언제든지 확인하여 주시기 바랍니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>수신자는 페이상품권 양도사실을 모바일 메신저 또는 SMS의 전자적 수단으로 통지받은 날로부터 93일 이내에, 페이상품권의 수령을 수락하는 의사를 표시하여 등록하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제6조 (양도 및 등록 등) 5 교환권을 제휴 판매처가 정한 등록기한 이내에 등록하지 않은 경우, 이용자는 제7조에서 정한 유효기간 이내에 교환권 구매금액 전부를 환급받을 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회사에서는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제6조 2 회사는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제8조 2회사는 불특정다수 회원에 대한 통지의 경우 7일 이상 사이버몰의 공지사항에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제9조 (개인위치정보주체의 권리) 4이용자는 회사에 대하여 아래 자료에 대한 열람 또는 고지를 요구할 수 있으며, 해당 자료에 오류가 있는 경우에는 정정을 요구할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>전항의 경우 불특정 다수인을 상대로 통지를 함에 있어서는 서비스 홈페이지 등 기타 회사의 공지사항 페이지를 통하여 회원들에게 통지할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>회원의 잔액 부족, 한도 초과, 결제 오류 등 기타 여하한 사유로 이용료의 결제가 이루어지지 않을 경우, 회원은 정상적으로 결제가 이루어질 수 있도록 필요한 조치를 취하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>“업주”는 “서비스” 이용과정에서 습득한 “회사” 및 “서비스”, “이용자”와 관련한 정보를 제3자에게 제공하거나 외부에 유출할 수 없으며, 개인정보의 경우 관련법령에 따라 필요한 보호 조치 등을 취해야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제3조 2 “회사”는 “약관의 규제에 관한 법률” 등 관련법을 위배하지 않는 범위에서 이 약관을 개정할 수 있습니다. 로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>“회사”가 약관을 개정할 경우에는 현행약관과 함께 그 개정약관의 적용일자 7일 전부터 적용일자 전일까지 “서비스” 페이지 공지사항 등을 통해 공지한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제3조 1“회사”는 이 약관의 내용을 “업주”가 쉽게 알 수 있도록 “서비스” 페이지 초기 화면에 게시한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>“업주”는 개별 상품을 통해 “이용자”에게 제공하는 것으로 약정된 혜택 등이 있는 경우 이를 성실히 이행하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제9조 (대금결제 및 환불) 5환불계좌는 기본 광고 진행 시 업주가 요청한 계좌로 설정되며 별도 신청이 없어도 바로결제 정산계좌가 기본이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>제8조 1 “회사”는 “서비스”의 제공을 일시 또는 영구적으로 중단할 수 있다. “업주”의 광고컨텐츠 및 “서비스” 이용이 본 약관 및 관련법령을 위반하는 경우, “서비스” 이용 대금의 지급을 지연하거나, “서비스” 이용을 위한 충전금이 부족한 경우, “서비스” 이용을 위한 충전금이 부족한 경우, 로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>“업주”의 신청을 승낙하지 않거나 유보한 경우, “회사”는 원칙적으로 이를 “업주”에게 안내한다. “회사”의 권리와 의무는 “회사”의 권리와 의무이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>제9조 1“회사”는 “업주”에게 “서비스” 이용요금을 부과할 수 있으며, 구체적인 서비스 이용요금은 개별 상품별 운영정책에 따릅니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>“업주”는 “업주”가 직접 등록하거나 “회사”에 제공하는 광고 컨텐츠가 관계법령을 위반하거나 제3자의 권리를 침해하지 않음을 보증한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
+    <t>회사는 14세 미만의 아동의 개인위치정보 또는 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우 이용자와 이용자의 법정대리인의 동의를 받아야 합니다. 단, 아래의 경우는 제외합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 작성한 게시물에 대한 모든 권리 및 책임은 이를 게시한 회원에게 있으며, 회사는 회원이 게시하거나 등록하는 서비스의 내용물이 다음 각 항에 해당한다고 판단되는 경우 또는 제3자로부터의 신고가 접수된 경우 관련 절차에 따라 사전통지 없이 임시조치 및 삭제할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사는 회사의 과실로 인하여 여러분이 손해를 입게 될 경우 본 약관 및 관련 법령에 따라 여러분의 손해를 배상하겠습니다. 다만 회사는 회사의 과실 없이 발생된 아래와 같은 손해에 대해서는 책임을 부담하지 않습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사가 본 약관을 변경하는 때에는 변경되는 약관의 시행일 1개월 전에 해당 전자금융거래를 수행하는 전자적 장치에 게시하고 이용자에게 통지하여야 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사는 프로상점 회원이 다음 각 호의 사유에 해당하는 경우, 서비스 이용을 제한하거나 회원자격을 제한, 정지하거나, 서비스 이용계약을 해지하고 탈퇴시킬 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,12 +884,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -903,9 +907,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,9 +947,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -978,26 +982,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1030,26 +1017,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1225,13 +1195,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="72.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1259,19 +1232,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1279,19 +1252,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1299,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1319,19 +1292,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1339,19 +1312,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1359,19 +1332,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1379,19 +1352,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1399,19 +1372,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1419,19 +1392,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1439,19 +1412,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1459,19 +1432,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1479,19 +1452,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
         <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1499,19 +1472,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1519,19 +1492,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1539,19 +1512,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1559,19 +1532,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
         <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1579,19 +1552,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
         <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1599,19 +1572,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1619,19 +1592,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1639,19 +1612,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="F21">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1659,19 +1632,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1679,19 +1652,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1699,19 +1672,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1719,19 +1692,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
         <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F25">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1739,19 +1712,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
         <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1759,19 +1732,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1779,19 +1752,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1799,19 +1772,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1819,19 +1792,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
         <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F30">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1839,19 +1812,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F31">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1859,19 +1832,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
         <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1879,19 +1852,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1899,19 +1872,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
         <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1919,19 +1892,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
         <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F35">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1939,19 +1912,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
         <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F36">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1959,19 +1932,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
         <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1979,19 +1952,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
         <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1999,19 +1972,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2019,19 +1992,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
         <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2039,19 +2012,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2059,19 +2032,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
         <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2079,19 +2052,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
         <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F43">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2099,19 +2072,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2119,19 +2092,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
         <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F45">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2139,19 +2112,19 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
         <v>103</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="F46">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2159,19 +2132,19 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
         <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2179,19 +2152,19 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
         <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F48">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2199,19 +2172,19 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
         <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2219,19 +2192,19 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
         <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F50">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2239,19 +2212,19 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
         <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F51">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2259,19 +2232,19 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
         <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F52">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2279,19 +2252,19 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
         <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F53">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2299,19 +2272,19 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
         <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2319,19 +2292,19 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
         <v>110</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F55">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2339,19 +2312,19 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F56">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2359,19 +2332,19 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
         <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F57">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2379,19 +2352,19 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
         <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2399,19 +2372,19 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
         <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F59">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2419,215 +2392,215 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
         <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F60">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F66" s="2">
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" t="s">
         <v>192</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F68" s="2">
+      <c r="F68">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70">
         <v>13</v>
       </c>
     </row>

--- a/TermList.xlsx
+++ b/TermList.xlsx
@@ -5,22 +5,38 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TermCompass\TermCompass_FastAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwjd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C09599D-000E-4A25-B18B-B5CB40BB4A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71502347-97E0-4ACE-881A-80D94FB11735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12885" yWindow="0" windowWidth="36780" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="202">
   <si>
     <t>id</t>
   </si>
@@ -57,12 +73,34 @@
 14. 사회 통념 또는 기타 관련법령에 위반된다고 판단되는 경우</t>
   </si>
   <si>
+    <t>DISADVANTAGE</t>
+  </si>
+  <si>
+    <t>제10조 - 게시물 정책</t>
+  </si>
+  <si>
     <t>제10조 (법정대리인의 권리) ②회사는 14세 미만의 아동의 개인위치정보 또는 위치정보 이용, 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우 이용자와 이용자의 법정대리인의 동의를 받아야 합니다. 단, 아래의 경우는 제외합니다.
 1.위치정보 및 위치기반서비스 제공에 따른 요금정산을 위하여 위치정보 이용, 제공사실 확인자료가 필요한 경우
 2.통계작성, 학술연구 또는 시장조사를 위하여 특정 개인을 알아볼 수 없는 형태로 가공하여 제공하는 경우</t>
   </si>
   <si>
+    <t>ADVANTAGE</t>
+  </si>
+  <si>
+    <t>제10조 - 법정대리인의 권리</t>
+  </si>
+  <si>
+    <t>회사는 14세 미만의 아동의 개인위치정보 또는 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우 이용자와 이용자의 법정대리인의 동의를 받아야 합니다. 단, 아래의 경우는 제외합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>제10조 (아이디 및 비밀번호의 관리) 2. 회사는 이 약관에 따라 판매회원에게 제공하는 통신판매중개서비스를 제한하거나 중지하려는 경우에는 제한 또는 중지 예정일의 7일 전까지 그 이유 및 내용을 구체적으로 고지합니다. 다만, 불법행위, 소비자 피해 발생 우려 등 긴급하고 상당한 이유가 있는 경우에는 위 예고 기간 중에도 해당 회원의 서비스 이용을 제한할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제10조 - 아이디 및 비밀번호의 관리</t>
+  </si>
+  <si>
+    <t>회사는 통신판매중개서비스를 제한하거나 중지하려는 경우에는 제한 또는 중지 예정일의 7일 전까지 그 이유 및 내용을 구체적으로 고지합니다. 다만, 긴급하고 상당한 이유가 있는 경우에는 제한할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제10조 (이용계약의 종료) ① 회원은 다음 각호에서 정한 바에 따라 이용계약을 해지할 수 있습니다.
@@ -71,6 +109,13 @@
 3. 회원의 의사로 해지한 후 회원 재가입, 임의 해지 등을 반복적으로 행하여 회사가 제공하는 각종 할인쿠폰, 이벤트 혜택 등 경제적 이익을 편법으로 수취하거나 이 과정에서 명의를 무단으로 사용하는 등 편법과 불법행위를 하는 것을 차단하고자 회사는 회원에게 이용 계약이 종료된 후라도 해당 회원의 재가입 제한 기간을 다음 각 목과 같이 운영하거나 또는 이용 신청을 승낙하지 않을 수 있습니다.
 가. 회원의 의사로 이용계약을 해지한 경우 : 1개월 (단, 탈퇴 시 판매회원의 지위도 동시에 가졌던 경우에는 2개월)
 나. 회원의 법령 및 구매이용약관, 판매이용약관 위반 행위가 있는 경우 : 5년</t>
+  </si>
+  <si>
+    <t>제10조 - 이용계약의 종료</t>
+  </si>
+  <si>
+    <t>회원은 언제든지 회사에 해지의 의사를 통지하여 이용계약을 해지할 수 있다. 회원이 회사에 대한 채무를 전부 이행하지 않으면 회사는 회원의 이용계약 해지를 제한할 수 있다. 회원이 약관과 관계 법령 등을 위반하여 이용이 정지된 경우 회사가 회원의 이용계약 해지를 제한할 수 있다. 회원의 의사로 해지한 후 회원 재가입, 임의 해지 등을 반복적으로 행하여 회사가 제공하는 각종 할인쿠폰, 이벤트 혜택 등 경제적 이익을 편법으로 수취하거나 이 과정에서 명의를 무단 사용하는 등 편법과 불법행위를 하는 것을 차단하고자 회사는 회원에게 이용 계약이 종료된 후라도 해당 회원의 재가입 제한 기간을 다음 각 목과 같이 운영하거나 또는 이용 신청을 승낙하지 않을 수로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제10조 (이용계약의 종료) ② 회사는 제1항 제2호의 규정에도 불구하고 회원이 다음 각 호에 해당하는 행위를 한 경우에 즉시 이용계약을 해지할 수 있습니다.
@@ -93,10 +138,27 @@
     <t>제10조 (통신판매업자의 준수사항 등) ③통신판매업자인 회원이 판매하는 물품을 구매한 구매자는 전자상거래법에 따라 물품을 수령한 날로부터 7일 이내에 청약의 철회 및 계약의 해제(이하 “청약철회등”)을 할 수 있습니다. 다만, 수령한 물품이 계약의 내용과 일치하지 않을 경우에는 물품을 수령한 날로부터 3개월 이내, 일치하지 않는다는 사실을 안 날 또는 알 수 있었던 날로부터 30일 이내에 청약철회등을 할 수 있습니다.</t>
   </si>
   <si>
+    <t>제10조 - 통신판매업자의 준수사항 등</t>
+  </si>
+  <si>
+    <t>통신판매업자인 회원이 판매하는 물품을 구매한 구매자는 전자상거래법에 따라 수령한 날로부터 7일 이내에 청약의 철회 및 계약의 해제를 할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>제10조 (통신판매업자의 준수사항 등) ⑦본조에 따라 구매자가 청약철회등을 한 경우 회사는 통신판매업자인 회원으로부터 반환 물품 수령 사실을 통지 받은 후 3영업일 이내에 구매자에게 결제 금액을 환급하여야 합니다.</t>
   </si>
   <si>
+    <t>구매자가 청약철회등을 한 경우 회사는 회원으로부터 반환 물품 수령 사실을 통지 받은 후 3영업일 이내에 구매자에게 결제 금액을 환급하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제10조 (회원에 대한 통지) ② “회사”는 불특정다수 “회원”에 대한 통지를 하는 경우 1주일 이상 사이트에 게시함으로써 개별 통지에 갈음할 수 있습니다. 다만 “회원” 본인의 거래와 관련하여 중대한 영향을 미치는 사항에 관하여는 본조 제1항에서 정한 방법으로 개별 통지합니다.</t>
+  </si>
+  <si>
+    <t>제10조 - 회원에 대한 통지</t>
+  </si>
+  <si>
+    <t>회사에서는 불특정다수 회원에 대한 통지를 하는 경우 1주일 이상 사이트에 게시함으로써 개별 통지에 갈음할 수 있지만 중대한 영향을 미치는 사항에 관하여는 개별 통지한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제11조 (개인위치정보주체의 권리) 3. 회원은 회사에 대하여 아래 각 호의 자료에 대한 열람 또는 고지를 요구할 수 있고, 당해 자료에 오류가 있는 경우에는 그 정정을 요구할 수 있습니다. 이 경우 회사는 정당한 사유 없이 회원의 요구를 거절할 수 없습니다.
@@ -104,13 +166,34 @@
 b. 본인의 개인위치정보가 위치정보의 보호 및 이용 등에 관한 법률 또는 다른 법률 규정에 의하여 제3자에게 제공된 이유 및 내용</t>
   </si>
   <si>
+    <t>제11조 - 개인위치정보주체의 권리</t>
+  </si>
+  <si>
+    <t>회원은 회사에 대하여 열람 또는 고지를 요구할 수 있고, 자료에 오류가 있는 경우에는 그 정정을 요구할 수 있습니다. 이 경우 회사는 정당한 사유 없이 회원의 요구를 거절할 수 없습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제11조 (디지털카드 서비스) ④회사, 발급기관 또는 이용기관(이하 발급기관과 이용기관을 통칭하여 ‘제휴사’라 합니다)이 제공하는 서비스에서 회원의 디지털카드 정보를 조회하거나 표시, 노출할 수 있습니다.</t>
   </si>
   <si>
+    <t>제11조 - 디지털카드 서비스</t>
+  </si>
+  <si>
     <t>제11조 (사업자 등록 등) ④사업자 등록을 한 프로상점 회원은 폐업 시 회사에 해당 사실을 즉시 통보해야 하며, 미 통보 시 발생되는 세무적 손해의 책임은 회사가 지지 않습니다.</t>
   </si>
   <si>
+    <t>제11조 - 사업자 등록 등</t>
+  </si>
+  <si>
+    <t>사업자 등록을 한 프로상점 회원은 폐업 시 회사에 즉시 통보해야 하며, 미 통보 시 발생되는 세무적 손해의 책임은 회사가 지지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제12조 (개인정보의 보호) ④ 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제12조 - 개인정보의 보호</t>
+  </si>
+  <si>
+    <t>수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있다. 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 자료를 제출할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제12조 (법정대리인의 권리) 2. 회사는 14세 미만의 아동의 개인위치정보 또는 위치정보 이용, 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우에는 14세 미만의 아동과 그 법정대리인의 동의를 받아야 합니다. 단, 아래의 경우는 제외합니다.
@@ -118,13 +201,38 @@
 b. 통계작성, 학술연구 또는 시장조사를 위하여 특정 개인을 알아볼 수 없는 형태로 가공하여 제공하는 경우</t>
   </si>
   <si>
+    <t>제12조 - 법정대리인의 권리</t>
+  </si>
+  <si>
+    <t>회사는 14세 미만의 아동의 개인위치정보 또는 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우에는 14세 미만의 아동과 그 법정대리인의 동의를 받아야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제12조 (책임 제한) ② 회사는 회원의 귀책사유로 인한 유료서비스 이용의 장애에 대하여는 회사의 귀책사유가 없는 한 책임을 지지 않습니다.</t>
   </si>
   <si>
+    <t>제12조 - 책임 제한</t>
+  </si>
+  <si>
+    <t>회원의 귀책사유로 인한 유료서비스 이용의 장애에 대하여는 회사의 귀책사유가 없는 한 책임을 지지 않습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>제14조 (청약철회, 해지 및 환불) ② 본조 제1항 제1호에 따른 청약철회 기간이 경과한 경우에도, 이용자가 어떠한 요기패스 서비스 혜택도 사용하지 않은 경우에는 이용기간 내에 해지할 수 있으며, 마지막으로 결제한 이용료에서 위약금 10%를 공제한 90%가 환불됩니다.</t>
   </si>
   <si>
+    <t>제14조 - 청약철회, 해지 및 환불</t>
+  </si>
+  <si>
+    <t>청약철회 기간이 경과한 경우에도 이용기간 내에 해지할 수 있으며, 결제한 이용료에서 위약금 10%를 공제한 90%가 환불된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제14조 (포인트, 할인쿠폰) ⑥본 약관 제 5조에 따라 회원 탈퇴 및 회원 자격이 상실된 경우, 탈퇴 및 자격 상실일까지 지급된 무상 포인트는 자동으로 소멸되며, 미사용 유상 포인트는 현금으로 환급됩니다.</t>
+  </si>
+  <si>
+    <t>제14조 - 포인트, 할인쿠폰</t>
+  </si>
+  <si>
+    <t>회원 탈퇴 및 자격 상실일까지 지급된 무상 포인트는 자동으로 소멸되며, 미사용 유상 포인트는 현금으로 환급됩니다.   로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
   </si>
   <si>
     <t>제15조 (게시물에 대한 권리) ⑤ 회원이 작성한 게시물에 대한 모든 권리 및 책임은 이를 게시한 회원에게 있으며, 회사는 회원이 게시하거나 등록한 게시물이 다음 각 호에 해당한다고 판단되는 경우 삭제 또는 임시조치할 수 있으며, 해당 조치 후 관련 내용을 회원에게 즉시 통보합니다.
@@ -143,12 +251,30 @@
   (13) 기타 관계법령에 위배된다고 판단되는 경우</t>
   </si>
   <si>
+    <t>제15조 - 게시물에 대한 권리</t>
+  </si>
+  <si>
+    <t>회원이 작성한 게시물에 대한 모든 권리 및 책임은 이를 게시한 회원에게 있으며, 회사는 회원이 게시하거나 등록한 게시물이 다음 각 호에 해당한다고 판단되는 경우 삭제 또는 임시조치할 수 있으며, 해당 조치 후 관련 내용을 회원에게 즉시 통보한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제15조 (회원에 대한 통지) ② 회사는 불특정다수의 이용자에 대한 통지의 경우 1주일 이상 회사 게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다.
 다만 이용자 본인의 거래와 관련하여 중대한 영향을 미치는 사항에 대하여는 개별통지를 할 수 있습니다.
 [제 4장 인터파크 어린이 회원]</t>
   </si>
   <si>
+    <t>제15조 - 회원에 대한 통지</t>
+  </si>
+  <si>
+    <t>회사는 불특정다수의 이용자에 대한 통지의 경우 1주일 이상 회사 게시판에 게시함으로써 개별 통지에 갈음할 수 있지만 이용자 본인의 거래와 관련하여 중대한 영향을 미치는 사항에 대하여는 개별통지를 할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제16조 (권리의 귀속) ⑥ 회원은 서비스를 이용하는 과정에서 얻은 정보를 회사의 사전 승낙 없이 복제, 송신, 출판, 배포, 방송, 편집, 재가공 등 기타 방법에 의하여 영리 목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.</t>
+  </si>
+  <si>
+    <t>제16조 - 권리의 귀속</t>
+  </si>
+  <si>
+    <t>회원은 서비스를 이용하는 과정에서 얻은 정보를 회사의 사전 승낙 없이 영리 목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.  로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제16조 (손해배상) ②회사는 회사의 과실로 인하여 여러분이 손해를 입게 될 경우 본 약관 및 관련 법령에 따라 여러분의 손해를 배상하겠습니다. 다만 회사는 회사의 과실 없이 발생된 아래와 같은 손해에 대해서는 책임을 부담하지 않습니다. 또한 회사는 법률상 허용되는 한도 내에서 간접 손해, 특별 손해, 결과적 손해, 징계적 손해, 및 징벌적 손해에 대한 책임을 부담하지 않습니다.
@@ -162,31 +288,75 @@
 8.기타 회사의 고의 또는 과실이 없는 사유로 인해 발생한 손해</t>
   </si>
   <si>
+    <t>제16조 - 손해배상</t>
+  </si>
+  <si>
+    <t>회사는 회사의 과실로 인하여 여러분이 손해를 입게 될 경우 본 약관 및 관련 법령에 따라 여러분의 손해를 배상하겠습니다. 다만 회사는 회사의 과실 없이 발생된 아래와 같은 손해에 대해서는 책임을 부담하지 않습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>제16조 (접근매체의 관리) ⑥ 회사가 전자적 장치의 작동오류 등 불가피한 사유로 이용자의 접근매체를 획득한 경우 그 접근매체를 그 이용자에게 반환할 때에는 다음 각 호의 방법으로 본인임을 확인할 수 있습니다.
 1. 국가 기관이 발급한 신분증이나 그 밖에 본인을 확인할 수 있는 서류로 확인하는 방법
 2. 휴대전화를 통한 본인확인 등 본인인증기관이 제공하는 본인확인 방법
 3. 기타 금융위원회가 정하여 고시하는 방법</t>
   </si>
   <si>
+    <t>제16조 - 접근매체의 관리</t>
+  </si>
+  <si>
+    <t>회사가 불가피한 사유로 이용자의 접근매체를 획득한 경우 그 접근매체를 반환할 때에는 다음 각 호의 방법으로 본인임을 확인할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제16조 (취소, 반품, 교환 처리) 7. 상품을 반품 받은 판매회원은 상품을 반환받은 날로부터 3영업일 이내에 검수 후 다음 각 호 중 1의 처리를 이행하여야 합니다. 만약 판매회원이 아무런 처리를 이행하지 아니하는 경우, 자동으로 반품확정 처리가 되며 구매회원에게 상품 등의 대금이 환불처리 됩니다.
 1) 반품확정 처리
 2) 배송비 정산, 사은품의 반환 확인 등이 필요한 경우 반품보류 처리. 단, 최대 21일까지 가능하며, 반품보류 처리기간 동안 상품 등의 대금은 환불되지 아니함.
 3) 본 조 제3항 단서 각 호 등 관련법령에 따른 정당한 사유에 근거한 반품거부 처리 및 구매회원에게 반송. 단, 반품거부 처리시 상품 등의 대금은 환불되지 아니하며 반품거부 사유에 대한 입증 책임은 판매회원에게 있음.</t>
   </si>
   <si>
+    <t>제16조 - 취소, 반품, 교환 처리</t>
+  </si>
+  <si>
+    <t>상품을 반품 받은 판매회원은 상품을 반환받은 날로부터 3영업일 이내에 검수 후 처리를 이행하여야 한다. 반품확정 처리는 배송비 정산, 사은품의 반환 확인 등이 필요한 경우 반품보류 처리, 반품거부 처리시 상품 등의 대금은 환불되지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제17조 (면책) 1. 회사는 다음 각 호의 경우로 서비스를 제공할 수 없는 경우 이로 인하여 회원에게 발생한 손해에 대해서는 책임을 부담하지 않습니다.
 a. 천재지변 또는 이에 준하는 불가항력의 상태가 있는 경우
 b. 서비스 제공을 위하여 회사와 서비스 제휴계약을 체결한 제3자의 고의적인 서비스 방해가 있는 경우
 c. 회원의 귀책사유로 서비스 이용에 장애가 있는 경우4) 제1호 내지 제3호를 제외한 기타 회사의 고의ㆍ과실이 없는 사유로 인한 경우</t>
   </si>
   <si>
+    <t>제17조 - 면책</t>
+  </si>
+  <si>
+    <t>회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우,로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>제17조 (분쟁의 해결) ①본 약관 또는 서비스는 대한민국법령에 의하여 규정되고 이행됩니다. 서비스 이용과 관련하여 회사와 여러분 간에 분쟁이 발생하면 이의 해결을 위해 성실히 협의할 것입니다. 그럼에도 불구하고 해결되지 않으면 민사소송법상의 관할법원에 소를 제기할 수 있습니다.</t>
   </si>
   <si>
+    <t>제17조 - 분쟁의 해결</t>
+  </si>
+  <si>
+    <t>회사와 여러분 간에 분쟁이 발생하면 이의 해결을 위해 성실히 협의할 것입니다. 그럼에도 해결되지 않으면 민사소송법상의 관할법원에 소를 제기할 수 있습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제17조 (제재 절차 및 조치) ② 회사는 판매회원이 법령 또는 제16조를 비롯한 본 약관에서 금지하는 행위를 하였거나 또는 법령∙가격∙유통상황∙상품광고∙이용후기의 내용 등을 종합적으로 고려하여 금지 행위를 한 것으로 판단하는 경우에는 위반 행위의 경중 및 횟수에 따라 소명 요청, 수정 요청, 경고, 서비스 이용제한(판매 중지 또는 금지를 통한 “판매 활동 제한” / 신규 상품 등록 중지 또는 금지, 제재 대상과 동일한 상품의 등록 중지 또는 금지, 상품 전시 차단 또는 삭제, 검색 제한, 광고 사용 중지 또는 광고 입찰 제한을 통한 “상품 등록∙전시∙검색∙광고 제한” / 상품 발송 지연 사실 등 법령 또는 약관 위반 사실의 공개), 거래 취소(이 경우 판매회원이 지급한 서비스 이용료는 환불되지 않을 수 있습니다) 또는 즉시 환불(구매자 취소 요청 시 판매자 확인 절차 없이 바로 환불 처리), 계약 해지, 재가입 차단 등 이용자 보호와 회사의 손해를 최소화 할 수 있는 조치를 취할 수 있습니다.</t>
   </si>
   <si>
+    <t>제17조 - 제재 절차 및 조치</t>
+  </si>
+  <si>
+    <t>회사는 판매회원이 법령 또는 제16조를 비롯한 본 약관에서 금지하는 행위를 하였거나 또는 법령∙가격∙유통상황∙상품광고∙이용후기의 내용 등을 종합적으로 고려하여 금지 행위를 한 것으로 판단하는 경우에는 위반 행위의 경중 및 횟수에 따라 이용자 보호와 회사의 손해를 최소화 할 수 있는 조치를 취할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제18조 (사용자 의견) 2. 본 약관은 당근와 사용자와의 관계에 적용되며, 제3자의 수익권을 발생시키지 않습니다.</t>
+  </si>
+  <si>
+    <t>제18조 - 사용자 의견</t>
+  </si>
+  <si>
+    <t>제18조는 당근과 사용자와의 관계에 적용되며, 제3자의 수익권을 발생시키지 않는다. 로인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
   </si>
   <si>
     <t>제18조 (취소 및 반품) 12. 판매회원이 상품의 취소, 반품, 환불과 관련한 이용정책을 위반하거나 이로 인한 클레임이 발생하였을 경우, 회사는 아래의 규정에 따라 조치 할 수 있습니다.
@@ -204,10 +374,28 @@
 ③ CS 불만족(분쟁) 유발 3차 발생시 : 전상품 판매중지 및 신상품 등록제한</t>
   </si>
   <si>
+    <t>제18조 - 취소 및 반품</t>
+  </si>
+  <si>
+    <t>판매회원이 상품의 취소, 반품, 환불과 관련한 이용정책을 위반하거나 이로 인한 클레임이 발생하였을 경우, 회사는 아래의 규정에 따라 조치 할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제19조 (예치된 결제대금의 지급방법) ① 소비자(그 소비자의 동의를 얻은 경우에는 재화 등을 공급받을 자를 포함한다. 이하 제2항 내지 제3항에서 같습니다)는 재화 등을 공급받은 사실을 재화 등을 공급받은 날부터 3영업일 이내에 회사에 통보하여야 합니다.</t>
   </si>
   <si>
+    <t>제19조 - 예치된 결제대금의 지급방법</t>
+  </si>
+  <si>
+    <t>제19조 (예치된 결제대금의 지급방법) 1 소비자는 재화 등을 공급받은 사실을 공급받은 날부터 3영업일 이내에 회사에 통보하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제1０조 (환불) ① 회사는 본 서비스 및 개별 서비스에 대하여 결제 및 환불 조건과 그 변경 내용에 대해 회원에게 설명하여야 한다.</t>
+  </si>
+  <si>
+    <t>제1０조 - 환불</t>
+  </si>
+  <si>
+    <t>제10조 (환불) 1 회사는 본 서비스 및 개별 서비스에 대하여 결제 및 환불 조건과 그 변경 내용에 대해 회원에게 설명하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
   </si>
   <si>
     <t>제1０조 (환불) ② 회원이 이용료를 결제한 이후 본 서비스가 중도에 해지되는 경우, 다음 각 호를 기준으로 환불 진행 여부를 결정할 수 있다. 
@@ -215,7 +403,16 @@
 B.회원이 이용료 결제 후 이용료를 결제한 해당 월에(연회원의 경우 해당 해) 본 서비스를 1회 이상 이용한 경우: 특별한 사정이 없는 한 환불 불가</t>
   </si>
   <si>
+    <t>제10조 2 회원이 이용료를 결제한 이후 본 서비스가 중도에 해지되는 경우, 다음 각 호를 기준으로 환불 진행 여부를 결정할 수 있다. A. 회원이 이용료 결제 후 이용료를 결제한 해당 월에 본 서비스를 1회 이상 이용한 경우 환불 불가하다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제20조 (구매안전 서비스) 1. 회사는 선지급식 통신판매에 있어서 구매자가 지급하는 결제대금을 예치하고 배송이 완료된 후 재화 또는 용역의 대금을 판매자에게 지급함으로써 구매자의 안전을 도모합니다.</t>
+  </si>
+  <si>
+    <t>제20조 - 구매안전 서비스</t>
+  </si>
+  <si>
+    <t>회사는 선지급식 통신판매에 있어서 구매자가 지급하는 결제대금을 예치하고 배송이 완료된 후 재화 또는 용역의 대금을 판매자에게 지급함으로써 구매자의 안전을 도모한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제20조 (반품/교환/환불의 적용 배제) 1.다음의 각 호의 경우에는 구매회원의 청약철회가 제한될 수 있습니다. (단, 상품 불량, 표시/광고 내용과 상이한 경우에는 제한되지 아니합니다.)
@@ -231,7 +428,19 @@
 10) 기타 관련법령이 정하는 청약철회 제한사유에 해당되는 경우</t>
   </si>
   <si>
+    <t>제20조 - 반품/교환/환불의 적용 배제</t>
+  </si>
+  <si>
+    <t>구매회원의 단순변심으로 인한 교환/반품 요청이 상품등을 수령한 날로부터 7일을 경과한 경우, 구매회원의 귀책사유로 말미암아 상품이 멸실·훼손된 경우, 구매회원의 사용 또는 일부 소비에 의하여 상품의 가치가 현저히 감소한 경우, 시간의 경과에 의하여 재판매가 곤란할 정도로 상품의 가치가 현저히 감소한 경우, 배송된 상품이 하자없음을 확인한 후 설치가 완료된 경우, 복제가 가능한 상품의 포장을 훼손한 경우, 구매하신 상품의 구성품 일부가 훼손되거나 누락된 경우, 기타 관련법령이 정하는 청약철회 제한사유에 해당되는 경우이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제21조 (구매안전서비스) 1. 회사는 선지급식 통신판매에 있어서 결제대금예치사업자(회사 포함, 이하 동일)를 통하여 구매회원이 지급하는 결제대금을 예치하고 배송이 완료된 후 상품 또는 용역의 대금을 판매회원에게 지급함으로써 구매회원의 안전을 도모합니다.</t>
+  </si>
+  <si>
+    <t>제21조 - 구매안전서비스</t>
+  </si>
+  <si>
+    <t>회사는 선지급식 통신판매에 있어서 구매회원이 지급하는 결제대금을 예치하고 배송이 완료된 후 상품 또는 용역의 대금을 판매회원에게 지급함으로써 구매회원의 안전을 도모한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제21조 (이용자의 의무) ② “이용자”는 “요기요서비스” 이용과 관련하여 다음 각호의 행위를 하여서는 아니 됩니다.
@@ -271,6 +480,12 @@
 마. 그 밖에 본 약관 또는 관련법령을 위반하여 “요기요” 또는 “가게”에게 손해를 끼치거나 끼칠 우려가 있는 일체의 행위</t>
   </si>
   <si>
+    <t>제21조 - 이용자의 의무</t>
+  </si>
+  <si>
+    <t>이용자는 “요기요서비스” 이용과 관련하여 “요기요 리뷰운영정책”을 위반하는 행위, “요기요”가 제공하는 경제적 이익을 수취할 목적으로 “요기요” 임의탈퇴 및 재가입을 반복하는 행위, “요기요”가 게시한 정보를 무단으로 복제하거나 위조, 변조하는 행위, “요기요”의 임직원, 피용자, 상담원, 업무수탁자에게 폭력적, 명예훼손적, 모욕적, 또는 성적 굴욕감이나 혐오감을 유발할 수 있는 발언이나 행동을 하는 행위, “요기요”의 “임직원 등”에게 일반적 거래관념상 비합리적이거나 그 의미 내지 취지가로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제21조 (회원의 의무) ③ 회원은 서비스 이용과 관련하여 다음 각 호의 행위를 하여서는 안됩니다.
   (1) 서비스 신청 변경, 본인인증 등 서비스 이용과정에서 허위내용을 기재·등록·전송 등을 하는 행위
   (2) 다른 회원의 아이디 및 비밀번호를 도용하여 부당하게 서비스를 이용하거나, 정보를 도용하는 행위
@@ -297,10 +512,28 @@
   (23) 기타 불법적이거나 회사에서 정한 규정을 위반하는 행위</t>
   </si>
   <si>
+    <t>제21조 - 회원의 의무</t>
+  </si>
+  <si>
+    <t>회원은 회사의 사업 현황을 파악하기 위한 목적, 불법적이거나 비합법적인 목적, 또는 본 이용 약관에서 금지하는 목적 등으로 사용하기 위하여 회사의 웹 ∙ 앱 ∙ 서버에 접근하는 일체의 행위를 하여서는 안 된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제24조 (환급 등) ④ 이용자의 충전식 선불전자지급수단 잔액이 이용자의 환급 요청 금액보다 작은 경우 이용자의 환급 요청에도 환급이 보류될 수 있습니다. 다만 회사는 그 사유가 해소되는 시점에 환급 처리를 합니다.</t>
   </si>
   <si>
+    <t>제24조 - 환급 등</t>
+  </si>
+  <si>
+    <t>이용자의 충전식 선불전자지급수단 잔액이 이용자의 환급 요청 금액보다 작은 경우 환급이 보류될 수 있으나 회사는 그 사유가 해소되는 시점에 환급 처리를 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제25조 (개인정보의 보호) 4. 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>제25조 - 개인정보의 보호</t>
+  </si>
+  <si>
+    <t>수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있습니다. 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 자료를 제출할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제32조 (금지행위) 10. 상표권 침해 금지
@@ -310,6 +543,12 @@
 2) 회사는 타인(개인 또는 법인)이 소유한 상표를 무단으로 도용한 이미테이션(모조)상품의 판매를 금지하고 있습니다. 이미테이션 여부를 사전에 고지했는지 여부와 관계없이 모든 이미테이션 제품은 판매가 불가능합니다.
 ① 등록 상품의 상품명 또는 상세설명에 A급, 특A급, SA급, 이미테이션 등의 문구를 기재한 경우
 3) 유명상표를 제목, 키워드, 상품상세설명에 무단으로 도용했을 경우 해당 상품은 상품등록이 거절되거나 제한상품으로 등록되고, 신용점수 차감, 상품삭제, 판매회원ID 중지 등의 패널티가 적용되며, 판매서비스이용료 및 부가서비스이용료는 환불되지 않습니다.</t>
+  </si>
+  <si>
+    <t>제32조 - 금지행위</t>
+  </si>
+  <si>
+    <t>판매회원은 타인의 상표나 로고를 사용할 때 반드시 사전에 해당 권리자에게 사용허락을 받아야 한다. 회사는 이미테이션(모조)상품의 판매를 금지하고 있다. 이미테이션 여부를 사전에 고지했는지 여부와 관계없이 모든 이미테이션 제품은 판매가 불가능하다. 유명상표를 무단으로 도용했을 경우 해당 상품은 상품등록이 거절되거나 제한상품으로 등록된다. 판매서비스이용료 및 부가서비스이용료는 환불되지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
   </si>
   <si>
     <t>제32조 (금지행위) 7. 부정키워드 사용금지
@@ -323,7 +562,16 @@
 ③ 3차 발견 시 위험도에 따라 G마켓 이용정지, 회원탈퇴</t>
   </si>
   <si>
+    <t>회사는 상품 등록 시 상품리스트 노출을 목적으로 상품명에 부정 키워드를 사용하는 것을 금지하고 있습니다. 부정키워드 사용 적발 시 회사는 신용점수 차감, 정산기일 조정 및 아래와 같은 제재조치를 취할 수 있습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제32조 (지식재산권의 귀속 및 이용제한) 2. 이용자는 사이트, 매장 또는 회사가 제공하는 각종 서비스를 이용함으로써 얻은 정보 중 회사에게 지식재산권이 귀속된 정보를 회사의 사전 승낙 없이 복제, 송신, 출판, 배포, 방송 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.</t>
+  </si>
+  <si>
+    <t>제32조 - 지식재산권의 귀속 및 이용제한</t>
+  </si>
+  <si>
+    <t>이용자는 회사가 제공하는 각종 서비스를 이용함으로써 얻은 정보 중 회사에게 지식재산권이 귀속된 정보를 회사의 사전 승낙 없이 영리목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제37조 (공급 방법에 따른 취소 방식) ① 우편배송 예매자
@@ -331,15 +579,33 @@
 2. 구매자가 티켓을 반송하는 경우 구매자의 예약번호, 연락처, 반송사유, 무통장 입금 고객의 경우에는 환불받으실 은행명, 계좌번호와 예금주이름을 적어 티켓과 함께 회사에 도달토록 하여야 합니다.</t>
   </si>
   <si>
+    <t>제37조 - 공급 방법에 따른 취소 방식</t>
+  </si>
+  <si>
+    <t>회사가 티켓을 발송한 이후 취소하려는 경우 구매자는 취소 마감시간 전까지 해당 티켓을 회사로 반송, 도달하도록 하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제37조 (공급 방법에 따른 취소 방식) ② 현장수령 예매자
 1. 구매자는 예매당일 회사의 인터넷사업장을 통해 직접 취소가 가능합니다.
 2. 예매당일 이후에도 취소가 가능하지만 제36조에 따른 취소수수료가 부과됩니다.</t>
   </si>
   <si>
+    <t>구매자는 예매당일 회사의 인터넷사업장을 통해 직접 취소가 가능하며 예매당일 이후에도 취소가 가능하지만 제36조에 따른 취소수수료가 부과된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제3조 (서비스 내용 및 요금) ②제1항 위치기반서비스의 이용요금은 무료입니다.</t>
   </si>
   <si>
+    <t>제3조 - 서비스 내용 및 요금</t>
+  </si>
+  <si>
     <t>제3조 (약관의 명시.교부.설명 및 변경) ③ 회사가 본 약관을 변경하는 때에는 변경되는 약관의 시행일 1개월 전에 그 내용을 해당 전자금융거래를 수행하는 전자적 장치(해당 전자적 장치에 게시하기 어려울 경우에는 이용자가 접근하기 용이한 전자적 장치)에 게시하고 이용자에게 통지하여야 합니다. 다만, 이용자가 이의를 제기할 경우 회사는 이용자에게 적절한 방법으로 약관 변경내용을 통지하였음을 확인해 주어야 합니다.</t>
+  </si>
+  <si>
+    <t>제3조 - 약관의 명시.교부.설명 및 변경</t>
+  </si>
+  <si>
+    <t>회사가 본 약관을 변경하는 때에는 변경되는 약관의 시행일 1개월 전에 해당 전자금융거래를 수행하는 전자적 장치에 게시하고 이용자에게 통지하여야 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제3조 (약관의 명시.교부.설명 및 변경) ③회사가 본 약관을 변경하는 때에는 변경되는 약관의 시행일 1개월 전에 그 내용을 해당 전자금융거래를 수행하는 전자적 장치(해당 전자적 장치에 게시하기 어려울 경우에는 이용자가 접근하기 용이한 전자적 장치)에 게시하고 이용자에게 통지하여야 합니다. 다만, 이용자가 이의를 제기할 경우 회사는 이용자에게 적절한 방법으로 약관 변경내용을 통지하였음을 확인해 주어야 합니다.</t>
@@ -350,38 +616,86 @@
 2. 개인위치정보주체의 개인위치정보가 위치정보의 보호 및 이용 등에 관한 법률 또는 다른 법령의 규정에 의하여 제3자에게 제공된 이유 및 내용</t>
   </si>
   <si>
+    <t>제4조 - 개인위치정보주체의 권리</t>
+  </si>
+  <si>
     <t>제4조 (서비스의 제공 및 변경) ①회사는 다음 각 호와 같은 서비스를 제공합니다.
 1.전자상거래 서비스(통신판매중개서비스 포함) 및 이에 수반 되는 기타 서비스
 2.기타 회사가 정하는 서비스 또는 업무</t>
   </si>
   <si>
+    <t>제4조 - 서비스의 제공 및 변경</t>
+  </si>
+  <si>
+    <t>제4조 1회사는 전자상거래 서비스 및 이에 수반 되는 기타 서비스, 기타 회사가 정하는 서비스 또는 업무 등을 제공한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제4조 (회원에 대한 통지) ② 회사는 회원 전체에 대한 통지의 경우 7일 이상 회사의 게시판에 게시함으로써 제1항의 통지에 갈음할 수 있습니다. 다만, 회원 본인의 거래와 관련하여 중대한 영향을 미치는 사항에 대하여는 제1항의 통지를 합니다.</t>
   </si>
   <si>
+    <t>제4조 - 회원에 대한 통지</t>
+  </si>
+  <si>
+    <t>회사는 회원에 대한 통지의 경우 7일 이상 게시함으로써 제1항의 통지에 갈음할 수 있습니다. 다만, 중대한 영향을 미치는 사항에 대해서는 제1항의 통지를 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제5조 (회사의 통지) ② 회사가 이용자 전체 또는 불특정 다수 이용자에게 통지를 하는 경우, 7일 이상 앱 내 공지함으로써 전항의 통지에 갈음할 수 있습니다. 다만, 이용자에게 중대한 영향을 미치거나 급박한 사항의 경우 전항의 통지를 합니다.</t>
   </si>
   <si>
+    <t>제5조 - 회사의 통지</t>
+  </si>
+  <si>
     <t>제6조 (다양한 서비스의 제공) ⑤회사는 여러분에게 SNS, 게시판 서비스, 온라인 콘텐츠 제공 서비스, 위치기반서비스 등 여러분이 인터넷과 모바일로 즐길 수 있는 다양한 서비스를 제공합니다. 여러분은 스마트폰의 어플리케이션 스토어 등에서 서비스를 다운받아 설치하거나 직접 PC에 설치 혹은 웹페이지에 접속하여 서비스를 이용할 수 있습니다. 그런데 회사는 여러분이 원하는 다양한 서비스를 시시각각 제공하기 때문에 서비스의 자세한 내용은 별도로 알려드릴 수밖에 없습니다. 이러한 회사의 사정을 이해하여 주시길 바라며, 회사도 개별적인 서비스 이용방법을 어플리케이션 스토어와 각 서비스의 Q&amp;A 센터, 해당 안내 및 고지사항에서 더 상세하게 안내하고 있으니 언제든지 확인하여 주시기 바랍니다.</t>
   </si>
   <si>
+    <t>제6조 - 다양한 서비스의 제공</t>
+  </si>
+  <si>
     <t>제6조 (양도 및 등록 등) ② 수신자는 페이상품권 양도사실을 모바일 메신저 또는 SMS의 전자적 수단으로 통지받은 날(이하 '통지일'이라 합니다)로부터 93일 이내에, 위 전자적 수단에서 제공하는 방법으로 페이상품권의 수령을 수락하는 의사를 표시하여 등록하여야 합니다.</t>
   </si>
   <si>
+    <t>제6조 - 양도 및 등록 등</t>
+  </si>
+  <si>
+    <t>수신자는 페이상품권 양도사실을 모바일 메신저 또는 SMS의 전자적 수단으로 통지받은 날로부터 93일 이내에, 페이상품권의 수령을 수락하는 의사를 표시하여 등록하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제6조 (양도 및 등록 등) ⑤ 교환권을 위 제4항에 제휴 판매처가 정한 등록기한 이내에 등록하지 않은 경우, 이용자는 제7조에서 정한 유효기간 이내에 교환권 구매금액 전부를 환급받을 수 있습니다.</t>
   </si>
   <si>
     <t>제6조 (회원에 대한 통지) ② "회사"는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다. 다만, 회원 본인의 거래와 관련하여 중대한 영향을 미치는 사항에 대하여는 개별 통지합니다.</t>
   </si>
   <si>
+    <t>제6조 - 회원에 대한 통지</t>
+  </si>
+  <si>
+    <t>회사에서는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제6조 (회원에 대한 통지) ②"회사"는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다. 다만, 회원 본인의 거래와 관련하여 중대한 영향을 미치는 사항에 대하여는 개별 통지합니다.</t>
   </si>
   <si>
+    <t>제6조 2 회사는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제8조 (회원에 대한 통지) ②회사는 불특정다수 회원에 대한 통지의 경우 7일 이상 사이버몰의 공지사항(고객센터)에 게시함으로써 개별 통지에 갈음할 수 있습니다. 다만, 회원 본인의 거래에 관련하여 중대한 영향을 미치는 사항에 대하여는 개별 통지합니다.</t>
+  </si>
+  <si>
+    <t>제8조 - 회원에 대한 통지</t>
+  </si>
+  <si>
+    <t>제8조 2회사는 불특정다수 회원에 대한 통지의 경우 7일 이상 사이버몰의 공지사항에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제9조 (개인위치정보주체의 권리) ④이용자는 회사에 대하여 아래 자료에 대한 열람 또는 고지를 요구할 수 있으며, 해당 자료에 오류가 있는 경우에는 정정을 요구할 수 있습니다. 이 경우 회사는 정당한 사유 없이 요구를 거절하지 않습니다.
 1.이용자에 대한 위치정보 이용·제공사실 확인자료
 2.이용자의 개인위치정보가 위치정보의 보호 및 이용 등에 관한 법률 또는 다른 법령의 규정에 의하여 제3자에게 제공된 이유 및 내용</t>
+  </si>
+  <si>
+    <t>제9조 - 개인위치정보주체의 권리</t>
+  </si>
+  <si>
+    <t>제9조 (개인위치정보주체의 권리) 4이용자는 회사에 대하여 아래 자료에 대한 열람 또는 고지를 요구할 수 있으며, 해당 자료에 오류가 있는 경우에는 정정을 요구할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제9조 (서비스 이용의 제한 등) ①회사는 프로상점 회원이 다음 각 호의 사유에 해당하는 경우, 서비스 이용을 제한하거나, 회원자격을 제한, 정지하거나, 서비스 이용계약을 해지하고 탈퇴시킬 수 있습니다.
@@ -397,184 +711,64 @@
 6) 기타 운영정책, 공지사항 등 회사의 운영방침에서 금지하는 행위를 하는 경우</t>
   </si>
   <si>
+    <t>제9조 - 서비스 이용의 제한 등</t>
+  </si>
+  <si>
+    <t>회사는 프로상점 회원이 다음 각 호의 사유에 해당하는 경우, 서비스 이용을 제한하거나 회원자격을 제한, 정지하거나, 서비스 이용계약을 해지하고 탈퇴시킬 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제9조 (서비스내용변경 통지 등) 2. 전항의 경우 불특정 다수인을 상대로 통지를 함에 있어서는 서비스 홈페이지 등 기타 회사의 공지사항 페이지를 통하여 회원들에게 통지할 수 있습니다. 단, 회원 본인의 거래와 관련하여 중대한 영향을 미치는 사항은 상당한 기간 동안 서비스 홈페이지에 게시하거나 회원에게 전자적 형태(전자우편, SMS 등)로 개별통지 합니다.</t>
   </si>
   <si>
+    <t>제9조 - 서비스내용변경 통지 등</t>
+  </si>
+  <si>
+    <t>전항의 경우 불특정 다수인을 상대로 통지를 함에 있어서는 서비스 홈페이지 등 기타 회사의 공지사항 페이지를 통하여 회원들에게 통지할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제９조 (결제 및 해지) ② 회원의 잔액 부족, 한도 초과, 결제 오류 등 기타 여하한 사유로 이용료의 결제가 이루어 지지 않을 경우, 회원은 회사가 고지한 재결제기한 내에 결제 정보를 재등록, 수정하는 등 정상적으로 결제가 이루어질 수 있도록 필요한 조치를 취하여야 한다.</t>
   </si>
   <si>
-    <t>제10조 - 게시물 정책</t>
-  </si>
-  <si>
-    <t>제10조 - 법정대리인의 권리</t>
-  </si>
-  <si>
-    <t>제10조 - 아이디 및 비밀번호의 관리</t>
-  </si>
-  <si>
-    <t>제10조 - 이용계약의 종료</t>
-  </si>
-  <si>
-    <t>제10조 - 통신판매업자의 준수사항 등</t>
-  </si>
-  <si>
-    <t>제10조 - 회원에 대한 통지</t>
-  </si>
-  <si>
-    <t>제11조 - 개인위치정보주체의 권리</t>
-  </si>
-  <si>
-    <t>제11조 - 디지털카드 서비스</t>
-  </si>
-  <si>
-    <t>제11조 - 사업자 등록 등</t>
-  </si>
-  <si>
-    <t>제12조 - 개인정보의 보호</t>
-  </si>
-  <si>
-    <t>제12조 - 법정대리인의 권리</t>
-  </si>
-  <si>
-    <t>제12조 - 책임 제한</t>
-  </si>
-  <si>
-    <t>제14조 - 청약철회, 해지 및 환불</t>
-  </si>
-  <si>
-    <t>제14조 - 포인트, 할인쿠폰</t>
-  </si>
-  <si>
-    <t>제15조 - 게시물에 대한 권리</t>
-  </si>
-  <si>
-    <t>제15조 - 회원에 대한 통지</t>
-  </si>
-  <si>
-    <t>제16조 - 권리의 귀속</t>
-  </si>
-  <si>
-    <t>제16조 - 손해배상</t>
-  </si>
-  <si>
-    <t>제16조 - 접근매체의 관리</t>
-  </si>
-  <si>
-    <t>제16조 - 취소, 반품, 교환 처리</t>
-  </si>
-  <si>
-    <t>제17조 - 면책</t>
-  </si>
-  <si>
-    <t>제17조 - 분쟁의 해결</t>
-  </si>
-  <si>
-    <t>제17조 - 제재 절차 및 조치</t>
-  </si>
-  <si>
-    <t>제18조 - 사용자 의견</t>
-  </si>
-  <si>
-    <t>제18조 - 취소 및 반품</t>
-  </si>
-  <si>
-    <t>제19조 - 예치된 결제대금의 지급방법</t>
-  </si>
-  <si>
-    <t>제1０조 - 환불</t>
-  </si>
-  <si>
-    <t>제20조 - 구매안전 서비스</t>
-  </si>
-  <si>
-    <t>제20조 - 반품/교환/환불의 적용 배제</t>
-  </si>
-  <si>
-    <t>제21조 - 구매안전서비스</t>
-  </si>
-  <si>
-    <t>제21조 - 이용자의 의무</t>
-  </si>
-  <si>
-    <t>제21조 - 회원의 의무</t>
-  </si>
-  <si>
-    <t>제24조 - 환급 등</t>
-  </si>
-  <si>
-    <t>제25조 - 개인정보의 보호</t>
-  </si>
-  <si>
-    <t>제32조 - 금지행위</t>
-  </si>
-  <si>
-    <t>제32조 - 지식재산권의 귀속 및 이용제한</t>
-  </si>
-  <si>
-    <t>제37조 - 공급 방법에 따른 취소 방식</t>
-  </si>
-  <si>
-    <t>제3조 - 서비스 내용 및 요금</t>
-  </si>
-  <si>
-    <t>제3조 - 약관의 명시.교부.설명 및 변경</t>
-  </si>
-  <si>
-    <t>제4조 - 개인위치정보주체의 권리</t>
-  </si>
-  <si>
-    <t>제4조 - 서비스의 제공 및 변경</t>
-  </si>
-  <si>
-    <t>제4조 - 회원에 대한 통지</t>
-  </si>
-  <si>
-    <t>제5조 - 회사의 통지</t>
-  </si>
-  <si>
-    <t>제6조 - 다양한 서비스의 제공</t>
-  </si>
-  <si>
-    <t>제6조 - 양도 및 등록 등</t>
-  </si>
-  <si>
-    <t>제6조 - 회원에 대한 통지</t>
-  </si>
-  <si>
-    <t>제8조 - 회원에 대한 통지</t>
-  </si>
-  <si>
-    <t>제9조 - 개인위치정보주체의 권리</t>
-  </si>
-  <si>
-    <t>제9조 - 서비스 이용의 제한 등</t>
-  </si>
-  <si>
-    <t>제9조 - 서비스내용변경 통지 등</t>
-  </si>
-  <si>
     <t>제９조 - 결제 및 해지</t>
   </si>
   <si>
+    <t>회원의 잔액 부족, 한도 초과, 결제 오류 등 기타 여하한 사유로 이용료의 결제가 이루어지지 않을 경우, 회원은 정상적으로 결제가 이루어질 수 있도록 필요한 조치를 취하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제5조 (이용계약 체결) ⑦“업주”는 “서비스” 이용과정에서 습득한 “회사” 및 “서비스”, “이용자”와 관련한 정보를 제3자에게 제공하거나 외부에 유출할 수 없으며, 개인정보의 경우 관련법령에 따라 필요한 보호 조치 등을 취해야 합니다.</t>
   </si>
   <si>
     <t>제5조 - 이용계약 체결</t>
   </si>
   <si>
+    <t>“업주”는 “서비스” 이용과정에서 습득한 “회사” 및 “서비스”, “이용자”와 관련한 정보를 제3자에게 제공하거나 외부에 유출할 수 없으며, 개인정보의 경우 관련법령에 따라 필요한 보호 조치 등을 취해야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제3조 (약관의 게시와 개정) ②“회사”는 “약관의 규제에 관한 법률”, “정보통신망 이용촉진 및 정보보호 등에 관한 법률”, “전자상거래 등에서의 소비자 보호에 관한 법률” 등 관련법을 위배하지 않는 범위에서 이 약관을 개정할 수 있습니다.</t>
   </si>
   <si>
     <t>제3조 - 약관의 게시와 개정</t>
   </si>
   <si>
+    <t>제3조 2 “회사”는 “약관의 규제에 관한 법률” 등 관련법을 위배하지 않는 범위에서 이 약관을 개정할 수 있습니다. 로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제3조 (약관의 게시와 개정) ③“회사”가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 그 개정약관의 적용일자 7일 전부터 적용일자 전일까지 “서비스” 페이지 공지사항 등을 통해 공지합니다. 다만, 회원에게 불리한 약관 개정의 경우에는 적용일자 30일 전부터 적용일자 전일까지 공지하고, 공지 외에 전자우편, 휴대폰메시지, 로그인 시 동의창 등의 방법을 통해 별도로 고지할 수 있습니다.</t>
   </si>
   <si>
+    <t>“회사”가 약관을 개정할 경우에는 현행약관과 함께 그 개정약관의 적용일자 7일 전부터 적용일자 전일까지 “서비스” 페이지 공지사항 등을 통해 공지한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제3조 (약관의 게시와 개정) ①“회사”는 이 약관의 내용을 “업주”가 쉽게 알 수 있도록 "서비스” 페이지 초기 화면에 게시합니다.</t>
   </si>
   <si>
+    <t>제3조 1“회사”는 이 약관의 내용을 “업주”가 쉽게 알 수 있도록 “서비스” 페이지 초기 화면에 게시한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+  </si>
+  <si>
     <t>제5조 (이용계약 체결) ④“업주”는 개별 상품을 통해 “이용자”에게 제공하는 것으로 약정된 혜택 등이 있는 경우 이를 성실히 이행하여야 합니다.</t>
+  </si>
+  <si>
+    <t>“업주”는 개별 상품을 통해 “이용자”에게 제공하는 것으로 약정된 혜택 등이 있는 경우 이를 성실히 이행하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
   </si>
   <si>
     <t>제9조 (대금결제 및 환불) ⑤환불계좌는 기본 광고(울트라콜,파워콜) 진행 시 업주가 요청한 계좌로 설정되며 환불계좌를 별도 신청하지 않았더라도 우리가게마케팅센터 약관 동의 시 바로결제 정산계좌가 기본으로 설정됩니다. 단, 2015년 12월 22일 이전 약관동의를 진행했거나 바로결제 정산계좌가 없는 경우 담당 매니저 또는 고객센터를 통해 환불계좌 등록 후 비즈머니 환불이 진행됩니다.</t>
@@ -593,223 +787,61 @@
     <t>제8조 - 서비스의 중단</t>
   </si>
   <si>
+    <t>제8조 1 “회사”는 “서비스”의 제공을 일시 또는 영구적으로 중단할 수 있다. “업주”의 광고컨텐츠 및 “서비스” 이용이 본 약관 및 관련법령을 위반하는 경우, “서비스” 이용 대금의 지급을 지연하거나, “서비스” 이용을 위한 충전금이 부족한 경우, 로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제5조 (이용계약 체결) ④제 2항과 및 제 3항에 따라 “업주”의 신청을 승낙 하지 아니하거나 유보한 경우, “회사”는 원칙적으로 이를 “업주”에게 안내합니다.
 제6조 “회사”의 권리와 의무</t>
   </si>
   <si>
+    <t>“업주”의 신청을 승낙하지 않거나 유보한 경우, “회사”는 원칙적으로 이를 “업주”에게 안내한다. “회사”의 권리와 의무는 “회사”의 권리와 의무이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제9조 (대금결제 및 환불) ①“회사”는 “업주”에게 “서비스” 이용요금을 부과할 수 있으며, 구체적인 서비스 이용요금은 개별 상품별 운영정책에 따릅니다.</t>
   </si>
   <si>
+    <t>제9조 1“회사”는 “업주”에게 “서비스” 이용요금을 부과할 수 있으며, 구체적인 서비스 이용요금은 개별 상품별 운영정책에 따릅니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+  </si>
+  <si>
     <t>제5조 (이용계약 체결) ②“업주”는 “업주”가 직접 등록하거나 “회사”에 제공하는 광고 컨텐츠가 관계법령을 위반하거나 제3자의 권리를 침해하지 않음을 보증하며, 이를 위반하여 분쟁이 발생하는 경우 “업주”의 책임과 비용으로 “회사”를 면책시키고 해당 분쟁을 해결하여야 합니다.</t>
   </si>
   <si>
-    <t>DISADVANTAGE</t>
-  </si>
-  <si>
-    <t>ADVANTAGE</t>
-  </si>
-  <si>
-    <t>회사는 통신판매중개서비스를 제한하거나 중지하려는 경우에는 제한 또는 중지 예정일의 7일 전까지 그 이유 및 내용을 구체적으로 고지합니다. 다만, 긴급하고 상당한 이유가 있는 경우에는 제한할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회원은 언제든지 회사에 해지의 의사를 통지하여 이용계약을 해지할 수 있다. 회원이 회사에 대한 채무를 전부 이행하지 않으면 회사는 회원의 이용계약 해지를 제한할 수 있다. 회원이 약관과 관계 법령 등을 위반하여 이용이 정지된 경우 회사가 회원의 이용계약 해지를 제한할 수 있다. 회원의 의사로 해지한 후 회원 재가입, 임의 해지 등을 반복적으로 행하여 회사가 제공하는 각종 할인쿠폰, 이벤트 혜택 등 경제적 이익을 편법으로 수취하거나 이 과정에서 명의를 무단 사용하는 등 편법과 불법행위를 하는 것을 차단하고자 회사는 회원에게 이용 계약이 종료된 후라도 해당 회원의 재가입 제한 기간을 다음 각 목과 같이 운영하거나 또는 이용 신청을 승낙하지 않을 수로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>제10조 2 회사는 제1항 제2호의 규정에도 불구하고 회원이 다음 각 호에 해당하는 행위를 한 경우에 즉시 이용계약을 해지할 수 있다. 회사는 회원에게 다음 각목의 1에 해당하는 사유가 발생하거나 확인되면 이용계약을 해지할 수 있다. 회원이 이 약관에 위배되는 행위를 하거나 이 약관에서 정한 해지사유가 발생한 경우(11번가 판매회원 약관의 적용을 받는 자가 해당 약관을 위반한 경우 포함). 회사가 해지할 때에는 회사는 회원에게 해지 의사를 통지한다. 이용계약은 회사의 해지의사가 회원에게 도달한 시점에 종료된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>통신판매업자인 회원이 판매하는 물품을 구매한 구매자는 전자상거래법에 따라 수령한 날로부터 7일 이내에 청약의 철회 및 계약의 해제를 할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>구매자가 청약철회등을 한 경우 회사는 회원으로부터 반환 물품 수령 사실을 통지 받은 후 3영업일 이내에 구매자에게 결제 금액을 환급하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회사에서는 불특정다수 회원에 대한 통지를 하는 경우 1주일 이상 사이트에 게시함으로써 개별 통지에 갈음할 수 있지만 중대한 영향을 미치는 사항에 관하여는 개별 통지한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회원은 회사에 대하여 열람 또는 고지를 요구할 수 있고, 자료에 오류가 있는 경우에는 그 정정을 요구할 수 있습니다. 이 경우 회사는 정당한 사유 없이 회원의 요구를 거절할 수 없습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제11조 (디지털카드 서비스) 4회사, 발급기관 또는 이용기관(이하 발급기관과 이용기관을 통칭하여 ‘제휴사’라 합니다)이 제공하는 서비스에서 회원의 디지털카드 정보를 조회하거나 노출할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>사업자 등록을 한 프로상점 회원은 폐업 시 회사에 즉시 통보해야 하며, 미 통보 시 발생되는 세무적 손해의 책임은 회사가 지지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있다. 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 자료를 제출할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회사는 14세 미만의 아동의 개인위치정보 또는 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우에는 14세 미만의 아동과 그 법정대리인의 동의를 받아야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회원의 귀책사유로 인한 유료서비스 이용의 장애에 대하여는 회사의 귀책사유가 없는 한 책임을 지지 않습니다. 회원의 귀책사유로 인한 유료서비스 이용의 장애에 대하여는 회사의 귀책사유가 없는 한 책임을 지지 않습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>청약철회 기간이 경과한 경우에도 이용기간 내에 해지할 수 있으며, 결제한 이용료에서 위약금 10%를 공제한 90%가 환불된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회원 탈퇴 및 자격 상실일까지 지급된 무상 포인트는 자동으로 소멸되며, 미사용 유상 포인트는 현금으로 환급됩니다.   로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회원이 작성한 게시물에 대한 모든 권리 및 책임은 이를 게시한 회원에게 있으며, 회사는 회원이 게시하거나 등록한 게시물이 다음 각 호에 해당한다고 판단되는 경우 삭제 또는 임시조치할 수 있으며, 해당 조치 후 관련 내용을 회원에게 즉시 통보한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회사는 불특정다수의 이용자에 대한 통지의 경우 1주일 이상 회사 게시판에 게시함으로써 개별 통지에 갈음할 수 있지만 이용자 본인의 거래와 관련하여 중대한 영향을 미치는 사항에 대하여는 개별통지를 할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회원은 서비스를 이용하는 과정에서 얻은 정보를 회사의 사전 승낙 없이 영리 목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.  로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회사가 불가피한 사유로 이용자의 접근매체를 획득한 경우 그 접근매체를 반환할 때에는 다음 각 호의 방법으로 본인임을 확인할 수 있다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>상품을 반품 받은 판매회원은 상품을 반환받은 날로부터 3영업일 이내에 검수 후 처리를 이행하여야 한다. 반품확정 처리는 배송비 정산, 사은품의 반환 확인 등이 필요한 경우 반품보류 처리, 반품거부 처리시 상품 등의 대금은 환불되지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 제1호 내지 제3호를 제외한 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우, 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우, 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 회원의 귀책사유로 서비스 이용에 장애가 있는 경우, 기타 회사의 고의ᆞ과실이 없는 사유로 인한 경우,로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회사와 여러분 간에 분쟁이 발생하면 이의 해결을 위해 성실히 협의할 것입니다. 그럼에도 해결되지 않으면 민사소송법상의 관할법원에 소를 제기할 수 있습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회사는 판매회원이 법령 또는 제16조를 비롯한 본 약관에서 금지하는 행위를 하였거나 또는 법령∙가격∙유통상황∙상품광고∙이용후기의 내용 등을 종합적으로 고려하여 금지 행위를 한 것으로 판단하는 경우에는 위반 행위의 경중 및 횟수에 따라 이용자 보호와 회사의 손해를 최소화 할 수 있는 조치를 취할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>제18조는 당근과 사용자와의 관계에 적용되며, 제3자의 수익권을 발생시키지 않는다. 본 약관은 당근와 사용자와의 관계에 적용되며, 제3자의 수익권을 발생시키지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>판매회원이 상품의 취소, 반품, 환불과 관련한 이용정책을 위반하거나 이로 인한 클레임이 발생하였을 경우, 회사는 아래의 규정에 따라 조치 할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>제19조 (예치된 결제대금의 지급방법) 1 소비자는 재화 등을 공급받은 사실을 공급받은 날부터 3영업일 이내에 회사에 통보하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제10조 (환불) 1 회사는 본 서비스 및 개별 서비스에 대하여 결제 및 환불 조건과 그 변경 내용에 대해 회원에게 설명하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>제10조 2 회원이 이용료를 결제한 이후 본 서비스가 중도에 해지되는 경우, 다음 각 호를 기준으로 환불 진행 여부를 결정할 수 있다. A. 회원이 이용료 결제 후 이용료를 결제한 해당 월에 본 서비스를 1회 이상 이용한 경우 환불 불가하다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회사는 선지급식 통신판매에 있어서 구매자가 지급하는 결제대금을 예치하고 배송이 완료된 후 재화 또는 용역의 대금을 판매자에게 지급함으로써 구매자의 안전을 도모한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>구매회원의 단순변심으로 인한 교환/반품 요청이 상품등을 수령한 날로부터 7일을 경과한 경우, 구매회원의 귀책사유로 말미암아 상품이 멸실·훼손된 경우, 구매회원의 사용 또는 일부 소비에 의하여 상품의 가치가 현저히 감소한 경우, 시간의 경과에 의하여 재판매가 곤란할 정도로 상품의 가치가 현저히 감소한 경우, 배송된 상품이 하자없음을 확인한 후 설치가 완료된 경우, 복제가 가능한 상품의 포장을 훼손한 경우, 구매하신 상품의 구성품 일부가 훼손되거나 누락된 경우, 기타 관련법령이 정하는 청약철회 제한사유에 해당되는 경우이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회사는 선지급식 통신판매에 있어서 구매회원이 지급하는 결제대금을 예치하고 배송이 완료된 후 상품 또는 용역의 대금을 판매회원에게 지급함으로써 구매회원의 안전을 도모한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>이용자는 “요기요서비스” 이용과 관련하여 “요기요 리뷰운영정책”을 위반하는 행위, “요기요”가 제공하는 경제적 이익을 수취할 목적으로 “요기요” 임의탈퇴 및 재가입을 반복하는 행위, “요기요”가 게시한 정보를 무단으로 복제하거나 위조, 변조하는 행위, “요기요”의 임직원, 피용자, 상담원, 업무수탁자에게 폭력적, 명예훼손적, 모욕적, 또는 성적 굴욕감이나 혐오감을 유발할 수 있는 발언이나 행동을 하는 행위, “요기요”의 “임직원 등”에게 일반적 거래관념상 비합리적이거나 그 의미 내지 취지가로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회원은 회사의 사업 현황을 파악하기 위한 목적, 불법적이거나 비합법적인 목적, 또는 본 이용 약관에서 금지하는 목적 등으로 사용하기 위하여 회사의 웹 ∙ 앱 ∙ 서버에 접근하는 일체의 행위를 하여서는 안 된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이용자의 충전식 선불전자지급수단 잔액이 이용자의 환급 요청 금액보다 작은 경우 환급이 보류될 수 있으나 회사는 그 사유가 해소되는 시점에 환급 처리를 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>수사관서 등이 판매회원에 관한 정보의 제공을 회사에 요청했을 때 회사는 해당 자료를 제출할 수 있습니다. 「전기통신사업법」 등 관련 법령이 규정하는 적법한 절차에 따라 자료를 제출할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>판매회원은 타인의 상표나 로고를 사용할 때 반드시 사전에 해당 권리자에게 사용허락을 받아야 한다. 회사는 이미테이션(모조)상품의 판매를 금지하고 있다. 이미테이션 여부를 사전에 고지했는지 여부와 관계없이 모든 이미테이션 제품은 판매가 불가능하다. 유명상표를 무단으로 도용했을 경우 해당 상품은 상품등록이 거절되거나 제한상품으로 등록된다. 판매서비스이용료 및 부가서비스이용료는 환불되지 않는다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회사는 상품 등록 시 상품리스트 노출을 목적으로 상품명에 부정 키워드를 사용하는 것을 금지하고 있습니다. 부정키워드 사용 적발 시 회사는 신용점수 차감, 정산기일 조정 및 아래와 같은 제재조치를 취할 수 있습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>이용자는 회사가 제공하는 각종 서비스를 이용함으로써 얻은 정보 중 회사에게 지식재산권이 귀속된 정보를 회사의 사전 승낙 없이 영리목적으로 이용하거나 제3자에게 이용하게 하여서는 안됩니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회사가 티켓을 발송한 이후 취소하려는 경우 구매자는 취소 마감시간 전까지 해당 티켓을 회사로 반송, 도달하도록 하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>구매자는 예매당일 회사의 인터넷사업장을 통해 직접 취소가 가능하며 예매당일 이후에도 취소가 가능하지만 제36조에 따른 취소수수료가 부과된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>위치기반서비스의 이용요금은 무료이다. 위치기반서비스의 이용요금은 무료이다. 위치기반서비스의 이용요금은 무료이다. 위치기반서비스의 이용요금은 무료이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회사가 본 약관을 변경하는 때에는 변경되는 약관의 시행일 1개월 전에 해당 전자금융거래를 수행하는 전자적 장치에 게시하고 이용자에게 통지하여야 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제4조 (개인위치정보주체의 권리) 4개인위치정보주체는 회사에 대하여 자료의 열람 또는 고지를 요구할 수 있고, 자료에 오류가 있는 경우에는 그 정정을 요구할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제4조 1회사는 전자상거래 서비스 및 이에 수반 되는 기타 서비스, 기타 회사가 정하는 서비스 또는 업무, 기타 회사가 정하는 서비스 또는 업무, 기타 회사가 정하는 서비스 등을 제공한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회사는 회원에 대한 통지의 경우 7일 이상 게시함으로써 제1항의 통지에 갈음할 수 있습니다. 다만, 중대한 영향을 미치는 사항에 대해서는 제1항의 통지를 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회사가 이용자 전체 또는 불특정 다수 이용자에게 통지를 하는 경우, 7일 이상 앱 내 공지함으로써 전항의 통지에 갈음할 수 있지만 중대한 영향을 미치거나 급박한 사항의 경우 전항의 통지를 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>5회사는 여러분이 인터넷과 모바일로 즐길 수 있는 다양한 서비스를 제공합니다. 회사도 개별적인 서비스 이용방법을 상세하게 안내하고 있으니 언제든지 확인하여 주시기 바랍니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>수신자는 페이상품권 양도사실을 모바일 메신저 또는 SMS의 전자적 수단으로 통지받은 날로부터 93일 이내에, 페이상품권의 수령을 수락하는 의사를 표시하여 등록하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제6조 (양도 및 등록 등) 5 교환권을 제휴 판매처가 정한 등록기한 이내에 등록하지 않은 경우, 이용자는 제7조에서 정한 유효기간 이내에 교환권 구매금액 전부를 환급받을 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회사에서는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제6조 2 회사는 불특정다수 회원에 대한 통지의 경우 1주일이상 "플랫폼"게시판에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제8조 2회사는 불특정다수 회원에 대한 통지의 경우 7일 이상 사이버몰의 공지사항에 게시함으로써 개별 통지에 갈음할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제9조 (개인위치정보주체의 권리) 4이용자는 회사에 대하여 아래 자료에 대한 열람 또는 고지를 요구할 수 있으며, 해당 자료에 오류가 있는 경우에는 정정을 요구할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>전항의 경우 불특정 다수인을 상대로 통지를 함에 있어서는 서비스 홈페이지 등 기타 회사의 공지사항 페이지를 통하여 회원들에게 통지할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>회원의 잔액 부족, 한도 초과, 결제 오류 등 기타 여하한 사유로 이용료의 결제가 이루어지지 않을 경우, 회원은 정상적으로 결제가 이루어질 수 있도록 필요한 조치를 취하여야 한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>“업주”는 “서비스” 이용과정에서 습득한 “회사” 및 “서비스”, “이용자”와 관련한 정보를 제3자에게 제공하거나 외부에 유출할 수 없으며, 개인정보의 경우 관련법령에 따라 필요한 보호 조치 등을 취해야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제3조 2 “회사”는 “약관의 규제에 관한 법률” 등 관련법을 위배하지 않는 범위에서 이 약관을 개정할 수 있습니다. 로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>“회사”가 약관을 개정할 경우에는 현행약관과 함께 그 개정약관의 적용일자 7일 전부터 적용일자 전일까지 “서비스” 페이지 공지사항 등을 통해 공지한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제3조 1“회사”는 이 약관의 내용을 “업주”가 쉽게 알 수 있도록 “서비스” 페이지 초기 화면에 게시한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>“업주”는 개별 상품을 통해 “이용자”에게 제공하는 것으로 약정된 혜택 등이 있는 경우 이를 성실히 이행하여야 한다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>제9조 (대금결제 및 환불) 5환불계좌는 기본 광고 진행 시 업주가 요청한 계좌로 설정되며 별도 신청이 없어도 바로결제 정산계좌가 기본이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>제8조 1 “회사”는 “서비스”의 제공을 일시 또는 영구적으로 중단할 수 있다. “업주”의 광고컨텐츠 및 “서비스” 이용이 본 약관 및 관련법령을 위반하는 경우, “서비스” 이용 대금의 지급을 지연하거나, “서비스” 이용을 위한 충전금이 부족한 경우, “서비스” 이용을 위한 충전금이 부족한 경우, 로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>“업주”의 신청을 승낙하지 않거나 유보한 경우, “회사”는 원칙적으로 이를 “업주”에게 안내한다. “회사”의 권리와 의무는 “회사”의 권리와 의무이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>제9조 1“회사”는 “업주”에게 “서비스” 이용요금을 부과할 수 있으며, 구체적인 서비스 이용요금은 개별 상품별 운영정책에 따릅니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
     <t>“업주”는 “업주”가 직접 등록하거나 “회사”에 제공하는 광고 컨텐츠가 관계법령을 위반하거나 제3자의 권리를 침해하지 않음을 보증한다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
-  </si>
-  <si>
-    <t>회사는 14세 미만의 아동의 개인위치정보 또는 제공사실 확인자료를 이용약관에 명시 또는 고지한 범위를 넘어 이용하거나 제3자에게 제공하고자 하는 경우 이용자와 이용자의 법정대리인의 동의를 받아야 합니다. 단, 아래의 경우는 제외합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원이 작성한 게시물에 대한 모든 권리 및 책임은 이를 게시한 회원에게 있으며, 회사는 회원이 게시하거나 등록하는 서비스의 내용물이 다음 각 항에 해당한다고 판단되는 경우 또는 제3자로부터의 신고가 접수된 경우 관련 절차에 따라 사전통지 없이 임시조치 및 삭제할 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회사는 회사의 과실로 인하여 여러분이 손해를 입게 될 경우 본 약관 및 관련 법령에 따라 여러분의 손해를 배상하겠습니다. 다만 회사는 회사의 과실 없이 발생된 아래와 같은 손해에 대해서는 책임을 부담하지 않습니다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <t>제9조 (대금결제 및 환불) 환불계좌는 기본 광고 진행 시 업주가 요청한 계좌로 설정되며 별도 신청이 없어도 바로결제 정산계좌가 기본이다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제6조 (양도 및 등록 등) 교환권을 제휴 판매처가 정한 등록기한 이내에 등록하지 않은 경우, 이용자는 제7조에서 정한 유효기간 이내에 교환권 구매금액 전부를 환급받을 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4조 (개인위치정보주체의 권리) 개인위치정보주체는 회사에 대하여 자료의 열람 또는 고지를 요구할 수 있고, 자료에 오류가 있는 경우에는 그 정정을 요구할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사가 이용자 전체 또는 불특정 다수 이용자에게 통지를 하는 경우, 7일 이상 앱 내 공지함으로써 전항의 통지에 갈음할 수 있지만 중대한 영향을 미치거나 급박한 사항의 경우 전항의 통지를 합니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사는 여러분이 인터넷과 모바일로 즐길 수 있는 다양한 서비스를 제공합니다. 회사도 개별적인 서비스 이용방법을 상세하게 안내하고 있으니 언제든지 확인하여 주시기 바랍니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADVANTAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제11조 (디지털카드 서비스) 회사, 발급기관 또는 이용기관(이하 발급기관과 이용기관을 통칭하여 ‘제휴사’라 합니다)이 제공하는 서비스에서 회원의 디지털카드 정보를 조회하거나 노출할 수 있습니다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제10조 회사는 제1항 제2호의 규정에도 불구하고 회원이 다음 각 호에 해당하는 행위를 한 경우에 즉시 이용계약을 해지할 수 있다. 회사는 회원에게 다음 각목의 1에 해당하는 사유가 발생하거나 확인되면 이용계약을 해지할 수 있다. 회원이 이 약관에 위배되는 행위를 하거나 이 약관에서 정한 해지사유가 발생한 경우(11번가 판매회원 약관의 적용을 받는 자가 해당 약관을 위반한 경우 포함). 회사가 해지할 때에는 회사는 회원에게 해지 의사를 통지한다. 이용계약은 회사의 해지의사가 회원에게 도달한 시점에 종료된다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -817,7 +849,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회사는 프로상점 회원이 다음 각 호의 사유에 해당하는 경우, 서비스 이용을 제한하거나 회원자격을 제한, 정지하거나, 서비스 이용계약을 해지하고 탈퇴시킬 수 있다.로 인해 사용자가 불편하거나 불이익을 겪을 가능성이 있습니다.</t>
+    <t>위치기반서비스의 이용요금은 무료이다.로 인해 사용자가 더 편리하거나 이익을 얻을 수 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -825,7 +857,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +879,21 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -884,11 +931,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1195,13 +1244,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="72.25" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="248.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1232,13 +1284,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -1249,16 +1301,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -1269,16 +1321,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1289,16 +1341,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1309,16 +1361,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1329,16 +1381,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1349,16 +1401,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1369,16 +1421,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -1389,16 +1441,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1409,16 +1461,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -1429,16 +1481,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1449,16 +1501,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1469,16 +1521,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1489,16 +1541,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1509,16 +1561,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -1529,16 +1581,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -1549,16 +1601,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -1569,16 +1621,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -1589,16 +1641,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -1609,16 +1661,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>11</v>
@@ -1629,16 +1681,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1649,16 +1701,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -1669,957 +1721,949 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F45" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F25">
+      <c r="F55" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="E61" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F61" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="E62" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F62" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F63" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F64" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F52">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F53">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F65" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F55">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="E66" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F56">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" t="s">
-        <v>200</v>
-      </c>
-      <c r="F58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="E67" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F67" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F61">
+      <c r="F68" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F62">
+      <c r="C69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E63" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" t="s">
-        <v>117</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" t="s">
-        <v>191</v>
-      </c>
-      <c r="F66">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" t="s">
-        <v>192</v>
-      </c>
-      <c r="F67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" t="s">
-        <v>194</v>
-      </c>
-      <c r="F69">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" t="s">
-        <v>195</v>
-      </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D6A6D9A8EDE2784AB7D3C0AFEE00D58A" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="00c645f4aad1bb4c2fad44adc063c94d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e06a894-8bd0-4934-b462-bf39d045bee3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14814c53d95d0f5003105f315aac1f8c" ns2:_="">
     <xsd:import namespace="4e06a894-8bd0-4934-b462-bf39d045bee3"/>
@@ -2763,21 +2807,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F9A5E0-9C74-4E40-8CAC-BBA66A0C8125}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088979B4-1B61-42A2-ADE4-12F2FDA9A3AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2795,11 +2840,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2163B2B-121D-4FC3-9F7D-35044338594B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F9A5E0-9C74-4E40-8CAC-BBA66A0C8125}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>